--- a/Testdata/Non_Oncology/Templates/ManagePopulations/EP_Categorical/Categorical-Master Template_InvalidColumn_QB_SB#5.xlsx
+++ b/Testdata/Non_Oncology/Templates/ManagePopulations/EP_Categorical/Categorical-Master Template_InvalidColumn_QB_SB#5.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Templtaes\Categorical\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\Templates\ManagePopulations\EP_Categorical\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D08F92A-C9EF-40B9-AD38-7B1C5EFAFF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D65C78-BF8B-4448-894D-1D46118C06B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Publication sheet upload" sheetId="5" r:id="rId1"/>
     <sheet name="Extraction sheet upload" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Extraction sheet upload'!$B$5:$HV$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Extraction sheet upload'!$B$5:$HX$8</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="548">
   <si>
     <t>SLR Type</t>
   </si>
@@ -1764,6 +1764,21 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>C-4</t>
+  </si>
+  <si>
+    <t>C-5</t>
+  </si>
+  <si>
+    <t>Follow-up Period Unit</t>
+  </si>
+  <si>
+    <t>Extraction_FollowUpPeriod: Number</t>
+  </si>
+  <si>
+    <t>Extraction_FollowUpPeriodUnit: string</t>
   </si>
 </sst>
 </file>
@@ -2758,11 +2773,11 @@
   <sheetPr codeName="Sheet1">
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:HZ8"/>
+  <dimension ref="A1:IB8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BE1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BJ4" sqref="BJ4"/>
+      <selection pane="bottomLeft" activeCell="AL1" sqref="AL1:AO8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -2797,86 +2812,86 @@
     <col min="31" max="32" width="14.59765625" customWidth="1" outlineLevel="2"/>
     <col min="33" max="34" width="12.59765625" customWidth="1" outlineLevel="2"/>
     <col min="35" max="36" width="16.09765625" customWidth="1" outlineLevel="2"/>
-    <col min="37" max="37" width="29.59765625" customWidth="1"/>
-    <col min="38" max="38" width="26.8984375" customWidth="1" outlineLevel="2"/>
-    <col min="39" max="39" width="26.3984375" customWidth="1" outlineLevel="2"/>
-    <col min="40" max="40" width="24.69921875" customWidth="1" outlineLevel="1"/>
-    <col min="41" max="42" width="25.69921875" customWidth="1" outlineLevel="2"/>
-    <col min="43" max="43" width="19" customWidth="1" outlineLevel="2"/>
-    <col min="44" max="44" width="17.59765625" customWidth="1" outlineLevel="2"/>
-    <col min="45" max="47" width="20.8984375" customWidth="1" outlineLevel="2"/>
-    <col min="48" max="48" width="15.09765625" customWidth="1" outlineLevel="2"/>
-    <col min="49" max="51" width="19" customWidth="1" outlineLevel="2"/>
-    <col min="52" max="52" width="20.19921875" customWidth="1" outlineLevel="2"/>
-    <col min="53" max="55" width="20.09765625" customWidth="1" outlineLevel="2"/>
-    <col min="56" max="60" width="20.19921875" customWidth="1" outlineLevel="2"/>
-    <col min="61" max="62" width="26.09765625" customWidth="1" outlineLevel="2"/>
-    <col min="63" max="63" width="20.19921875" customWidth="1" outlineLevel="2"/>
-    <col min="64" max="65" width="19.19921875" customWidth="1" outlineLevel="2"/>
-    <col min="66" max="66" width="24.69921875" customWidth="1" outlineLevel="1"/>
-    <col min="67" max="68" width="25.69921875" customWidth="1" outlineLevel="2"/>
-    <col min="69" max="69" width="19" customWidth="1" outlineLevel="2"/>
-    <col min="70" max="70" width="17.59765625" customWidth="1" outlineLevel="2"/>
-    <col min="71" max="73" width="20.8984375" customWidth="1" outlineLevel="2"/>
-    <col min="74" max="74" width="15.09765625" customWidth="1" outlineLevel="2"/>
-    <col min="75" max="77" width="19" customWidth="1" outlineLevel="2"/>
-    <col min="78" max="78" width="20.19921875" customWidth="1" outlineLevel="2"/>
-    <col min="79" max="81" width="20.09765625" customWidth="1" outlineLevel="2"/>
-    <col min="82" max="85" width="20.19921875" customWidth="1" outlineLevel="2"/>
-    <col min="86" max="86" width="26.09765625" customWidth="1" outlineLevel="2"/>
-    <col min="87" max="87" width="20.19921875" customWidth="1" outlineLevel="2"/>
-    <col min="88" max="89" width="19.19921875" customWidth="1" outlineLevel="2"/>
-    <col min="90" max="90" width="24.69921875" customWidth="1" outlineLevel="1"/>
-    <col min="91" max="92" width="25.69921875" customWidth="1" outlineLevel="2"/>
-    <col min="93" max="93" width="19" customWidth="1" outlineLevel="2"/>
-    <col min="94" max="94" width="17.59765625" customWidth="1" outlineLevel="2"/>
-    <col min="95" max="97" width="20.8984375" customWidth="1" outlineLevel="2"/>
-    <col min="98" max="98" width="15.09765625" customWidth="1" outlineLevel="2"/>
-    <col min="99" max="101" width="19" customWidth="1" outlineLevel="2"/>
-    <col min="102" max="102" width="20.19921875" customWidth="1" outlineLevel="2"/>
-    <col min="103" max="105" width="20.09765625" customWidth="1" outlineLevel="2"/>
-    <col min="106" max="109" width="20.19921875" customWidth="1" outlineLevel="2"/>
-    <col min="110" max="111" width="26.09765625" customWidth="1" outlineLevel="2"/>
-    <col min="112" max="112" width="20.19921875" customWidth="1" outlineLevel="2"/>
-    <col min="113" max="114" width="19.19921875" customWidth="1" outlineLevel="2"/>
-    <col min="115" max="116" width="22.69921875" customWidth="1" outlineLevel="1"/>
-    <col min="117" max="117" width="21.09765625" customWidth="1" outlineLevel="1"/>
-    <col min="118" max="118" width="18.09765625" customWidth="1" outlineLevel="2"/>
-    <col min="119" max="119" width="20.69921875" customWidth="1" outlineLevel="2"/>
+    <col min="37" max="39" width="29.59765625" customWidth="1"/>
+    <col min="40" max="40" width="26.8984375" customWidth="1" outlineLevel="2"/>
+    <col min="41" max="41" width="26.3984375" customWidth="1" outlineLevel="2"/>
+    <col min="42" max="42" width="24.69921875" customWidth="1" outlineLevel="1"/>
+    <col min="43" max="44" width="25.69921875" customWidth="1" outlineLevel="2"/>
+    <col min="45" max="45" width="19" customWidth="1" outlineLevel="2"/>
+    <col min="46" max="46" width="17.59765625" customWidth="1" outlineLevel="2"/>
+    <col min="47" max="49" width="20.8984375" customWidth="1" outlineLevel="2"/>
+    <col min="50" max="50" width="15.09765625" customWidth="1" outlineLevel="2"/>
+    <col min="51" max="53" width="19" customWidth="1" outlineLevel="2"/>
+    <col min="54" max="54" width="20.19921875" customWidth="1" outlineLevel="2"/>
+    <col min="55" max="57" width="20.09765625" customWidth="1" outlineLevel="2"/>
+    <col min="58" max="62" width="20.19921875" customWidth="1" outlineLevel="2"/>
+    <col min="63" max="64" width="26.09765625" customWidth="1" outlineLevel="2"/>
+    <col min="65" max="65" width="20.19921875" customWidth="1" outlineLevel="2"/>
+    <col min="66" max="67" width="19.19921875" customWidth="1" outlineLevel="2"/>
+    <col min="68" max="68" width="24.69921875" customWidth="1" outlineLevel="1"/>
+    <col min="69" max="70" width="25.69921875" customWidth="1" outlineLevel="2"/>
+    <col min="71" max="71" width="19" customWidth="1" outlineLevel="2"/>
+    <col min="72" max="72" width="17.59765625" customWidth="1" outlineLevel="2"/>
+    <col min="73" max="75" width="20.8984375" customWidth="1" outlineLevel="2"/>
+    <col min="76" max="76" width="15.09765625" customWidth="1" outlineLevel="2"/>
+    <col min="77" max="79" width="19" customWidth="1" outlineLevel="2"/>
+    <col min="80" max="80" width="20.19921875" customWidth="1" outlineLevel="2"/>
+    <col min="81" max="83" width="20.09765625" customWidth="1" outlineLevel="2"/>
+    <col min="84" max="87" width="20.19921875" customWidth="1" outlineLevel="2"/>
+    <col min="88" max="88" width="26.09765625" customWidth="1" outlineLevel="2"/>
+    <col min="89" max="89" width="20.19921875" customWidth="1" outlineLevel="2"/>
+    <col min="90" max="91" width="19.19921875" customWidth="1" outlineLevel="2"/>
+    <col min="92" max="92" width="24.69921875" customWidth="1" outlineLevel="1"/>
+    <col min="93" max="94" width="25.69921875" customWidth="1" outlineLevel="2"/>
+    <col min="95" max="95" width="19" customWidth="1" outlineLevel="2"/>
+    <col min="96" max="96" width="17.59765625" customWidth="1" outlineLevel="2"/>
+    <col min="97" max="99" width="20.8984375" customWidth="1" outlineLevel="2"/>
+    <col min="100" max="100" width="15.09765625" customWidth="1" outlineLevel="2"/>
+    <col min="101" max="103" width="19" customWidth="1" outlineLevel="2"/>
+    <col min="104" max="104" width="20.19921875" customWidth="1" outlineLevel="2"/>
+    <col min="105" max="107" width="20.09765625" customWidth="1" outlineLevel="2"/>
+    <col min="108" max="111" width="20.19921875" customWidth="1" outlineLevel="2"/>
+    <col min="112" max="113" width="26.09765625" customWidth="1" outlineLevel="2"/>
+    <col min="114" max="114" width="20.19921875" customWidth="1" outlineLevel="2"/>
+    <col min="115" max="116" width="19.19921875" customWidth="1" outlineLevel="2"/>
+    <col min="117" max="118" width="22.69921875" customWidth="1" outlineLevel="1"/>
+    <col min="119" max="119" width="21.09765625" customWidth="1" outlineLevel="1"/>
     <col min="120" max="120" width="18.09765625" customWidth="1" outlineLevel="2"/>
-    <col min="121" max="121" width="19.5" customWidth="1" outlineLevel="2"/>
-    <col min="122" max="123" width="14.59765625" customWidth="1" outlineLevel="2"/>
-    <col min="124" max="124" width="18.8984375" customWidth="1"/>
-    <col min="125" max="129" width="18.8984375" customWidth="1" outlineLevel="1"/>
-    <col min="130" max="131" width="24.5" customWidth="1" outlineLevel="1"/>
-    <col min="132" max="140" width="17.19921875" customWidth="1" outlineLevel="1"/>
-    <col min="141" max="142" width="17.69921875" customWidth="1" outlineLevel="1"/>
-    <col min="143" max="151" width="19.3984375" customWidth="1" outlineLevel="1"/>
-    <col min="152" max="155" width="18.8984375" customWidth="1" outlineLevel="1"/>
-    <col min="156" max="156" width="20.8984375" customWidth="1"/>
-    <col min="157" max="157" width="20.8984375" customWidth="1" outlineLevel="1"/>
-    <col min="158" max="159" width="18.19921875" customWidth="1" outlineLevel="1"/>
-    <col min="160" max="167" width="19" customWidth="1" outlineLevel="1"/>
-    <col min="168" max="169" width="16.8984375" customWidth="1" outlineLevel="1"/>
-    <col min="170" max="179" width="19" customWidth="1" outlineLevel="1"/>
-    <col min="180" max="181" width="15.09765625" customWidth="1" outlineLevel="1"/>
-    <col min="182" max="182" width="13.5" customWidth="1" outlineLevel="1"/>
-    <col min="183" max="183" width="19.09765625" customWidth="1" outlineLevel="1"/>
-    <col min="184" max="184" width="18.59765625" customWidth="1" outlineLevel="1"/>
-    <col min="185" max="185" width="13.5" customWidth="1" outlineLevel="1"/>
+    <col min="121" max="121" width="20.69921875" customWidth="1" outlineLevel="2"/>
+    <col min="122" max="122" width="18.09765625" customWidth="1" outlineLevel="2"/>
+    <col min="123" max="123" width="19.5" customWidth="1" outlineLevel="2"/>
+    <col min="124" max="125" width="14.59765625" customWidth="1" outlineLevel="2"/>
+    <col min="126" max="126" width="18.8984375" customWidth="1"/>
+    <col min="127" max="131" width="18.8984375" customWidth="1" outlineLevel="1"/>
+    <col min="132" max="133" width="24.5" customWidth="1" outlineLevel="1"/>
+    <col min="134" max="142" width="17.19921875" customWidth="1" outlineLevel="1"/>
+    <col min="143" max="144" width="17.69921875" customWidth="1" outlineLevel="1"/>
+    <col min="145" max="153" width="19.3984375" customWidth="1" outlineLevel="1"/>
+    <col min="154" max="157" width="18.8984375" customWidth="1" outlineLevel="1"/>
+    <col min="158" max="158" width="20.8984375" customWidth="1"/>
+    <col min="159" max="159" width="20.8984375" customWidth="1" outlineLevel="1"/>
+    <col min="160" max="161" width="18.19921875" customWidth="1" outlineLevel="1"/>
+    <col min="162" max="169" width="19" customWidth="1" outlineLevel="1"/>
+    <col min="170" max="171" width="16.8984375" customWidth="1" outlineLevel="1"/>
+    <col min="172" max="181" width="19" customWidth="1" outlineLevel="1"/>
+    <col min="182" max="183" width="15.09765625" customWidth="1" outlineLevel="1"/>
+    <col min="184" max="184" width="13.5" customWidth="1" outlineLevel="1"/>
+    <col min="185" max="185" width="19.09765625" customWidth="1" outlineLevel="1"/>
     <col min="186" max="186" width="18.59765625" customWidth="1" outlineLevel="1"/>
-    <col min="187" max="191" width="14.8984375" customWidth="1" outlineLevel="1"/>
-    <col min="192" max="193" width="18.69921875" customWidth="1" outlineLevel="1"/>
-    <col min="194" max="222" width="14.8984375" customWidth="1" outlineLevel="1"/>
-    <col min="223" max="223" width="15.5" customWidth="1"/>
-    <col min="224" max="224" width="12.09765625" customWidth="1" outlineLevel="1"/>
-    <col min="225" max="226" width="20" customWidth="1" outlineLevel="1"/>
-    <col min="227" max="232" width="12.09765625" customWidth="1" outlineLevel="1"/>
-    <col min="233" max="234" width="12.59765625" customWidth="1" outlineLevel="1"/>
-    <col min="246" max="248" width="12.59765625" customWidth="1"/>
+    <col min="187" max="187" width="13.5" customWidth="1" outlineLevel="1"/>
+    <col min="188" max="188" width="18.59765625" customWidth="1" outlineLevel="1"/>
+    <col min="189" max="193" width="14.8984375" customWidth="1" outlineLevel="1"/>
+    <col min="194" max="195" width="18.69921875" customWidth="1" outlineLevel="1"/>
+    <col min="196" max="224" width="14.8984375" customWidth="1" outlineLevel="1"/>
+    <col min="225" max="225" width="15.5" customWidth="1"/>
+    <col min="226" max="226" width="12.09765625" customWidth="1" outlineLevel="1"/>
+    <col min="227" max="228" width="20" customWidth="1" outlineLevel="1"/>
+    <col min="229" max="234" width="12.09765625" customWidth="1" outlineLevel="1"/>
+    <col min="235" max="236" width="12.59765625" customWidth="1" outlineLevel="1"/>
+    <col min="248" max="250" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:234" s="57" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:236" s="57" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="49" t="s">
         <v>18</v>
       </c>
@@ -2920,9 +2935,9 @@
       </c>
       <c r="AL1" s="53"/>
       <c r="AM1" s="53"/>
-      <c r="AN1" s="52"/>
+      <c r="AN1" s="53"/>
       <c r="AO1" s="53"/>
-      <c r="AP1" s="53"/>
+      <c r="AP1" s="52"/>
       <c r="AQ1" s="53"/>
       <c r="AR1" s="53"/>
       <c r="AS1" s="53"/>
@@ -2946,9 +2961,9 @@
       <c r="BK1" s="53"/>
       <c r="BL1" s="53"/>
       <c r="BM1" s="53"/>
-      <c r="BN1" s="52"/>
+      <c r="BN1" s="53"/>
       <c r="BO1" s="53"/>
-      <c r="BP1" s="53"/>
+      <c r="BP1" s="52"/>
       <c r="BQ1" s="53"/>
       <c r="BR1" s="53"/>
       <c r="BS1" s="53"/>
@@ -3004,11 +3019,11 @@
       <c r="DQ1" s="53"/>
       <c r="DR1" s="53"/>
       <c r="DS1" s="53"/>
-      <c r="DT1" s="54" t="s">
+      <c r="DT1" s="53"/>
+      <c r="DU1" s="53"/>
+      <c r="DV1" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="DU1" s="54"/>
-      <c r="DV1" s="54"/>
       <c r="DW1" s="54"/>
       <c r="DX1" s="54"/>
       <c r="DY1" s="54"/>
@@ -3038,11 +3053,11 @@
       <c r="EW1" s="54"/>
       <c r="EX1" s="54"/>
       <c r="EY1" s="54"/>
-      <c r="EZ1" s="55" t="s">
+      <c r="EZ1" s="54"/>
+      <c r="FA1" s="54"/>
+      <c r="FB1" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="FA1" s="55"/>
-      <c r="FB1" s="55"/>
       <c r="FC1" s="55"/>
       <c r="FD1" s="55"/>
       <c r="FE1" s="55"/>
@@ -3107,11 +3122,11 @@
       <c r="HL1" s="55"/>
       <c r="HM1" s="55"/>
       <c r="HN1" s="55"/>
-      <c r="HO1" s="56" t="s">
+      <c r="HO1" s="55"/>
+      <c r="HP1" s="55"/>
+      <c r="HQ1" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="HP1" s="56"/>
-      <c r="HQ1" s="56"/>
       <c r="HR1" s="56"/>
       <c r="HS1" s="56"/>
       <c r="HT1" s="56"/>
@@ -3121,8 +3136,10 @@
       <c r="HX1" s="56"/>
       <c r="HY1" s="56"/>
       <c r="HZ1" s="56"/>
+      <c r="IA1" s="56"/>
+      <c r="IB1" s="56"/>
     </row>
-    <row r="2" spans="1:234" s="11" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:236" s="11" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>23</v>
       </c>
@@ -3170,14 +3187,14 @@
       </c>
       <c r="AL2" s="16"/>
       <c r="AM2" s="16"/>
-      <c r="AN2" s="38" t="s">
+      <c r="AN2" s="16"/>
+      <c r="AO2" s="16"/>
+      <c r="AP2" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="AO2" s="39" t="s">
+      <c r="AQ2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="AP2" s="39"/>
-      <c r="AQ2" s="39"/>
       <c r="AR2" s="39"/>
       <c r="AS2" s="39"/>
       <c r="AT2" s="39"/>
@@ -3200,14 +3217,14 @@
       <c r="BK2" s="39"/>
       <c r="BL2" s="39"/>
       <c r="BM2" s="39"/>
-      <c r="BN2" s="33" t="s">
+      <c r="BN2" s="39"/>
+      <c r="BO2" s="39"/>
+      <c r="BP2" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="BO2" s="34" t="s">
+      <c r="BQ2" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="BP2" s="34"/>
-      <c r="BQ2" s="34"/>
       <c r="BR2" s="34"/>
       <c r="BS2" s="34"/>
       <c r="BT2" s="34"/>
@@ -3228,14 +3245,14 @@
       <c r="CI2" s="34"/>
       <c r="CJ2" s="34"/>
       <c r="CK2" s="34"/>
-      <c r="CL2" s="27" t="s">
+      <c r="CL2" s="34"/>
+      <c r="CM2" s="34"/>
+      <c r="CN2" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="CM2" s="28" t="s">
+      <c r="CO2" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="CN2" s="28"/>
-      <c r="CO2" s="28"/>
       <c r="CP2" s="28"/>
       <c r="CQ2" s="28"/>
       <c r="CR2" s="28"/>
@@ -3257,34 +3274,34 @@
       <c r="DH2" s="28"/>
       <c r="DI2" s="28"/>
       <c r="DJ2" s="28"/>
-      <c r="DK2" s="22" t="s">
+      <c r="DK2" s="28"/>
+      <c r="DL2" s="28"/>
+      <c r="DM2" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="DL2" s="23"/>
-      <c r="DM2" s="15" t="s">
+      <c r="DN2" s="23"/>
+      <c r="DO2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="DN2" s="16"/>
-      <c r="DO2" s="16"/>
       <c r="DP2" s="16"/>
       <c r="DQ2" s="16"/>
       <c r="DR2" s="16"/>
-      <c r="DS2" s="17"/>
-      <c r="DT2" s="63" t="s">
+      <c r="DS2" s="16"/>
+      <c r="DT2" s="16"/>
+      <c r="DU2" s="17"/>
+      <c r="DV2" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="DU2" s="64"/>
-      <c r="DV2" s="64"/>
       <c r="DW2" s="64"/>
       <c r="DX2" s="64"/>
       <c r="DY2" s="64"/>
       <c r="DZ2" s="64"/>
       <c r="EA2" s="64"/>
-      <c r="EB2" s="66" t="s">
+      <c r="EB2" s="64"/>
+      <c r="EC2" s="64"/>
+      <c r="ED2" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="EC2" s="67"/>
-      <c r="ED2" s="67"/>
       <c r="EE2" s="67"/>
       <c r="EF2" s="67"/>
       <c r="EG2" s="67"/>
@@ -3293,11 +3310,11 @@
       <c r="EJ2" s="67"/>
       <c r="EK2" s="67"/>
       <c r="EL2" s="67"/>
-      <c r="EM2" s="69" t="s">
+      <c r="EM2" s="67"/>
+      <c r="EN2" s="67"/>
+      <c r="EO2" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="EN2" s="70"/>
-      <c r="EO2" s="70"/>
       <c r="EP2" s="70"/>
       <c r="EQ2" s="70"/>
       <c r="ER2" s="70"/>
@@ -3306,21 +3323,21 @@
       <c r="EU2" s="70"/>
       <c r="EV2" s="70"/>
       <c r="EW2" s="70"/>
-      <c r="EX2" s="72" t="s">
+      <c r="EX2" s="70"/>
+      <c r="EY2" s="70"/>
+      <c r="EZ2" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="EY2" s="74"/>
-      <c r="EZ2" s="63" t="s">
+      <c r="FA2" s="74"/>
+      <c r="FB2" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="FA2" s="64"/>
-      <c r="FB2" s="64"/>
       <c r="FC2" s="64"/>
-      <c r="FD2" s="75" t="s">
+      <c r="FD2" s="64"/>
+      <c r="FE2" s="64"/>
+      <c r="FF2" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="FE2" s="76"/>
-      <c r="FF2" s="76"/>
       <c r="FG2" s="76"/>
       <c r="FH2" s="76"/>
       <c r="FI2" s="76"/>
@@ -3347,11 +3364,11 @@
       <c r="GD2" s="76"/>
       <c r="GE2" s="76"/>
       <c r="GF2" s="76"/>
-      <c r="GG2" s="96" t="s">
+      <c r="GG2" s="76"/>
+      <c r="GH2" s="76"/>
+      <c r="GI2" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="GH2" s="95"/>
-      <c r="GI2" s="95"/>
       <c r="GJ2" s="95"/>
       <c r="GK2" s="95"/>
       <c r="GL2" s="95"/>
@@ -3381,28 +3398,30 @@
       <c r="HJ2" s="95"/>
       <c r="HK2" s="95"/>
       <c r="HL2" s="95"/>
-      <c r="HM2" s="89" t="s">
+      <c r="HM2" s="95"/>
+      <c r="HN2" s="95"/>
+      <c r="HO2" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="HN2" s="90"/>
-      <c r="HO2" s="2" t="s">
+      <c r="HP2" s="90"/>
+      <c r="HQ2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="HP2" s="2"/>
-      <c r="HQ2" s="2"/>
       <c r="HR2" s="2"/>
-      <c r="HS2" s="3" t="s">
+      <c r="HS2" s="2"/>
+      <c r="HT2" s="2"/>
+      <c r="HU2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="HT2" s="3"/>
-      <c r="HU2" s="3"/>
       <c r="HV2" s="3"/>
       <c r="HW2" s="3"/>
       <c r="HX2" s="3"/>
       <c r="HY2" s="3"/>
       <c r="HZ2" s="3"/>
+      <c r="IA2" s="3"/>
+      <c r="IB2" s="3"/>
     </row>
-    <row r="3" spans="1:234" s="11" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:236" s="11" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -3442,35 +3461,35 @@
       <c r="AK3" s="60"/>
       <c r="AL3" s="59"/>
       <c r="AM3" s="59"/>
-      <c r="AN3" s="40" t="s">
+      <c r="AN3" s="59"/>
+      <c r="AO3" s="59"/>
+      <c r="AP3" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="AO3" s="41"/>
-      <c r="AP3" s="41"/>
-      <c r="AQ3" s="42" t="s">
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="41"/>
+      <c r="AS3" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="AR3" s="41"/>
-      <c r="AS3" s="41"/>
       <c r="AT3" s="41"/>
       <c r="AU3" s="41"/>
-      <c r="AV3" s="42" t="s">
+      <c r="AV3" s="41"/>
+      <c r="AW3" s="41"/>
+      <c r="AX3" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="AW3" s="41"/>
-      <c r="AX3" s="41"/>
-      <c r="AY3" s="42" t="s">
+      <c r="AY3" s="41"/>
+      <c r="AZ3" s="41"/>
+      <c r="BA3" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="AZ3" s="41"/>
-      <c r="BA3" s="41"/>
       <c r="BB3" s="41"/>
       <c r="BC3" s="41"/>
-      <c r="BD3" s="42" t="s">
+      <c r="BD3" s="41"/>
+      <c r="BE3" s="41"/>
+      <c r="BF3" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="BE3" s="41"/>
-      <c r="BF3" s="41"/>
       <c r="BG3" s="41"/>
       <c r="BH3" s="41"/>
       <c r="BI3" s="41"/>
@@ -3478,95 +3497,95 @@
       <c r="BK3" s="41"/>
       <c r="BL3" s="41"/>
       <c r="BM3" s="41"/>
-      <c r="BN3" s="35" t="s">
+      <c r="BN3" s="41"/>
+      <c r="BO3" s="41"/>
+      <c r="BP3" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="BO3" s="36"/>
-      <c r="BP3" s="36"/>
-      <c r="BQ3" s="35" t="s">
+      <c r="BQ3" s="36"/>
+      <c r="BR3" s="36"/>
+      <c r="BS3" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="BR3" s="36"/>
-      <c r="BS3" s="36"/>
       <c r="BT3" s="36"/>
       <c r="BU3" s="36"/>
-      <c r="BV3" s="35" t="s">
+      <c r="BV3" s="36"/>
+      <c r="BW3" s="36"/>
+      <c r="BX3" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="BW3" s="36"/>
-      <c r="BX3" s="36"/>
-      <c r="BY3" s="35" t="s">
+      <c r="BY3" s="36"/>
+      <c r="BZ3" s="36"/>
+      <c r="CA3" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="BZ3" s="36"/>
-      <c r="CA3" s="36"/>
       <c r="CB3" s="36"/>
       <c r="CC3" s="36"/>
-      <c r="CD3" s="35" t="s">
+      <c r="CD3" s="36"/>
+      <c r="CE3" s="36"/>
+      <c r="CF3" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="CE3" s="36"/>
-      <c r="CF3" s="36"/>
       <c r="CG3" s="36"/>
       <c r="CH3" s="36"/>
       <c r="CI3" s="36"/>
       <c r="CJ3" s="36"/>
       <c r="CK3" s="36"/>
-      <c r="CL3" s="29" t="s">
+      <c r="CL3" s="36"/>
+      <c r="CM3" s="36"/>
+      <c r="CN3" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="CM3" s="30"/>
-      <c r="CN3" s="30"/>
-      <c r="CO3" s="31" t="s">
+      <c r="CO3" s="30"/>
+      <c r="CP3" s="30"/>
+      <c r="CQ3" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="CP3" s="30"/>
-      <c r="CQ3" s="30"/>
       <c r="CR3" s="30"/>
       <c r="CS3" s="30"/>
-      <c r="CT3" s="31" t="s">
+      <c r="CT3" s="30"/>
+      <c r="CU3" s="30"/>
+      <c r="CV3" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="CU3" s="30"/>
-      <c r="CV3" s="30"/>
-      <c r="CW3" s="31" t="s">
+      <c r="CW3" s="30"/>
+      <c r="CX3" s="30"/>
+      <c r="CY3" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="CX3" s="30"/>
-      <c r="CY3" s="30"/>
       <c r="CZ3" s="30"/>
       <c r="DA3" s="30"/>
-      <c r="DB3" s="31" t="s">
+      <c r="DB3" s="30"/>
+      <c r="DC3" s="30"/>
+      <c r="DD3" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="DC3" s="30"/>
-      <c r="DD3" s="30"/>
       <c r="DE3" s="30"/>
       <c r="DF3" s="30"/>
       <c r="DG3" s="30"/>
       <c r="DH3" s="30"/>
       <c r="DI3" s="30"/>
       <c r="DJ3" s="30"/>
-      <c r="DK3" s="24"/>
-      <c r="DL3" s="25"/>
-      <c r="DM3" s="18"/>
-      <c r="DN3" s="19"/>
-      <c r="DO3" s="19"/>
+      <c r="DK3" s="30"/>
+      <c r="DL3" s="30"/>
+      <c r="DM3" s="24"/>
+      <c r="DN3" s="25"/>
+      <c r="DO3" s="18"/>
       <c r="DP3" s="19"/>
       <c r="DQ3" s="19"/>
       <c r="DR3" s="19"/>
-      <c r="DS3" s="20"/>
-      <c r="DT3" s="61"/>
-      <c r="DU3" s="62"/>
-      <c r="DV3" s="62"/>
+      <c r="DS3" s="19"/>
+      <c r="DT3" s="19"/>
+      <c r="DU3" s="20"/>
+      <c r="DV3" s="61"/>
       <c r="DW3" s="62"/>
       <c r="DX3" s="62"/>
       <c r="DY3" s="62"/>
       <c r="DZ3" s="62"/>
       <c r="EA3" s="62"/>
-      <c r="EB3" s="66"/>
-      <c r="EC3" s="67"/>
-      <c r="ED3" s="67"/>
+      <c r="EB3" s="62"/>
+      <c r="EC3" s="62"/>
+      <c r="ED3" s="66"/>
       <c r="EE3" s="67"/>
       <c r="EF3" s="67"/>
       <c r="EG3" s="67"/>
@@ -3575,9 +3594,9 @@
       <c r="EJ3" s="67"/>
       <c r="EK3" s="67"/>
       <c r="EL3" s="67"/>
-      <c r="EM3" s="69"/>
-      <c r="EN3" s="70"/>
-      <c r="EO3" s="70"/>
+      <c r="EM3" s="67"/>
+      <c r="EN3" s="67"/>
+      <c r="EO3" s="69"/>
       <c r="EP3" s="70"/>
       <c r="EQ3" s="70"/>
       <c r="ER3" s="70"/>
@@ -3586,29 +3605,29 @@
       <c r="EU3" s="70"/>
       <c r="EV3" s="70"/>
       <c r="EW3" s="70"/>
-      <c r="EX3" s="72"/>
-      <c r="EY3" s="74"/>
-      <c r="EZ3" s="63"/>
-      <c r="FA3" s="64"/>
-      <c r="FB3" s="64"/>
+      <c r="EX3" s="70"/>
+      <c r="EY3" s="70"/>
+      <c r="EZ3" s="72"/>
+      <c r="FA3" s="74"/>
+      <c r="FB3" s="63"/>
       <c r="FC3" s="64"/>
-      <c r="FD3" s="66" t="s">
+      <c r="FD3" s="64"/>
+      <c r="FE3" s="64"/>
+      <c r="FF3" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="FE3" s="67"/>
-      <c r="FF3" s="67"/>
       <c r="FG3" s="67"/>
       <c r="FH3" s="67"/>
       <c r="FI3" s="67"/>
       <c r="FJ3" s="67"/>
       <c r="FK3" s="67"/>
       <c r="FL3" s="67"/>
-      <c r="FM3" s="68"/>
-      <c r="FN3" s="69" t="s">
+      <c r="FM3" s="67"/>
+      <c r="FN3" s="67"/>
+      <c r="FO3" s="68"/>
+      <c r="FP3" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="FO3" s="70"/>
-      <c r="FP3" s="70"/>
       <c r="FQ3" s="70"/>
       <c r="FR3" s="70"/>
       <c r="FS3" s="70"/>
@@ -3617,35 +3636,35 @@
       <c r="FV3" s="70"/>
       <c r="FW3" s="70"/>
       <c r="FX3" s="70"/>
-      <c r="FY3" s="71"/>
-      <c r="FZ3" s="72" t="s">
+      <c r="FY3" s="70"/>
+      <c r="FZ3" s="70"/>
+      <c r="GA3" s="71"/>
+      <c r="GB3" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="GA3" s="74"/>
-      <c r="GB3" s="74"/>
       <c r="GC3" s="74"/>
       <c r="GD3" s="74"/>
       <c r="GE3" s="74"/>
-      <c r="GF3" s="73"/>
-      <c r="GG3" s="77" t="s">
+      <c r="GF3" s="74"/>
+      <c r="GG3" s="74"/>
+      <c r="GH3" s="73"/>
+      <c r="GI3" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="GH3" s="78"/>
-      <c r="GI3" s="78"/>
       <c r="GJ3" s="78"/>
-      <c r="GK3" s="79"/>
-      <c r="GL3" s="80" t="s">
+      <c r="GK3" s="78"/>
+      <c r="GL3" s="78"/>
+      <c r="GM3" s="79"/>
+      <c r="GN3" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="GM3" s="81"/>
-      <c r="GN3" s="81"/>
       <c r="GO3" s="81"/>
-      <c r="GP3" s="82"/>
-      <c r="GQ3" s="84" t="s">
+      <c r="GP3" s="81"/>
+      <c r="GQ3" s="81"/>
+      <c r="GR3" s="82"/>
+      <c r="GS3" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="GR3" s="85"/>
-      <c r="GS3" s="85"/>
       <c r="GT3" s="85"/>
       <c r="GU3" s="85"/>
       <c r="GV3" s="85"/>
@@ -3658,31 +3677,33 @@
       <c r="HC3" s="85"/>
       <c r="HD3" s="85"/>
       <c r="HE3" s="85"/>
-      <c r="HF3" s="86"/>
-      <c r="HG3" s="87" t="s">
+      <c r="HF3" s="85"/>
+      <c r="HG3" s="85"/>
+      <c r="HH3" s="86"/>
+      <c r="HI3" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="HH3" s="88"/>
-      <c r="HI3" s="88"/>
       <c r="HJ3" s="88"/>
       <c r="HK3" s="88"/>
       <c r="HL3" s="88"/>
-      <c r="HM3" s="91"/>
-      <c r="HN3" s="92"/>
-      <c r="HO3" s="2"/>
-      <c r="HP3" s="2"/>
+      <c r="HM3" s="88"/>
+      <c r="HN3" s="88"/>
+      <c r="HO3" s="91"/>
+      <c r="HP3" s="92"/>
       <c r="HQ3" s="2"/>
       <c r="HR3" s="2"/>
-      <c r="HS3" s="3"/>
-      <c r="HT3" s="3"/>
+      <c r="HS3" s="2"/>
+      <c r="HT3" s="2"/>
       <c r="HU3" s="3"/>
       <c r="HV3" s="3"/>
       <c r="HW3" s="3"/>
       <c r="HX3" s="3"/>
       <c r="HY3" s="3"/>
       <c r="HZ3" s="3"/>
+      <c r="IA3" s="3"/>
+      <c r="IB3" s="3"/>
     </row>
-    <row r="4" spans="1:234" s="12" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:236" s="12" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>56</v>
       </c>
@@ -3800,593 +3821,599 @@
       <c r="AM4" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="AN4" s="43" t="s">
+      <c r="AN4" s="21" t="s">
+        <v>543</v>
+      </c>
+      <c r="AO4" s="21" t="s">
+        <v>544</v>
+      </c>
+      <c r="AP4" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="AO4" s="43" t="s">
+      <c r="AQ4" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="AP4" s="43" t="s">
+      <c r="AR4" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="AQ4" s="43" t="s">
+      <c r="AS4" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="AR4" s="43" t="s">
+      <c r="AT4" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="AS4" s="43" t="s">
+      <c r="AU4" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="AT4" s="43" t="s">
+      <c r="AV4" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="AU4" s="43" t="s">
+      <c r="AW4" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="AV4" s="43" t="s">
+      <c r="AX4" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="AW4" s="43" t="s">
+      <c r="AY4" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="AX4" s="43" t="s">
+      <c r="AZ4" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="AY4" s="43" t="s">
+      <c r="BA4" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="AZ4" s="43" t="s">
+      <c r="BB4" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="BA4" s="43" t="s">
+      <c r="BC4" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="BB4" s="43" t="s">
+      <c r="BD4" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="BC4" s="43" t="s">
+      <c r="BE4" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="BD4" s="43" t="s">
+      <c r="BF4" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="BE4" s="43" t="s">
+      <c r="BG4" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="BF4" s="43" t="s">
+      <c r="BH4" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="BG4" s="98" t="s">
+      <c r="BI4" s="98" t="s">
         <v>541</v>
       </c>
-      <c r="BH4" s="43" t="s">
+      <c r="BJ4" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="BI4" s="43" t="s">
+      <c r="BK4" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="BJ4" s="98" t="s">
+      <c r="BL4" s="98" t="s">
         <v>542</v>
       </c>
-      <c r="BK4" s="43" t="s">
+      <c r="BM4" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="BL4" s="43" t="s">
+      <c r="BN4" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="BM4" s="43" t="s">
+      <c r="BO4" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="BN4" s="37" t="s">
+      <c r="BP4" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="BO4" s="37" t="s">
+      <c r="BQ4" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="BP4" s="37" t="s">
+      <c r="BR4" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="BQ4" s="37" t="s">
+      <c r="BS4" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="BR4" s="37" t="s">
+      <c r="BT4" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="BS4" s="37" t="s">
+      <c r="BU4" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="BT4" s="37" t="s">
+      <c r="BV4" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="BU4" s="37" t="s">
+      <c r="BW4" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="BV4" s="37" t="s">
+      <c r="BX4" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="BW4" s="37" t="s">
+      <c r="BY4" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="BX4" s="37" t="s">
+      <c r="BZ4" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="BY4" s="37" t="s">
+      <c r="CA4" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="BZ4" s="37" t="s">
+      <c r="CB4" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="CA4" s="37" t="s">
+      <c r="CC4" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="CB4" s="37" t="s">
+      <c r="CD4" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="CC4" s="37" t="s">
+      <c r="CE4" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="CD4" s="37" t="s">
+      <c r="CF4" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="CE4" s="37" t="s">
+      <c r="CG4" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="CF4" s="37" t="s">
+      <c r="CH4" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="CG4" s="37" t="s">
+      <c r="CI4" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="CH4" s="37" t="s">
+      <c r="CJ4" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="CI4" s="37" t="s">
+      <c r="CK4" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="CJ4" s="37" t="s">
+      <c r="CL4" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="CK4" s="37" t="s">
+      <c r="CM4" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="CL4" s="32" t="s">
+      <c r="CN4" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="CM4" s="32" t="s">
+      <c r="CO4" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="CN4" s="32" t="s">
+      <c r="CP4" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="CO4" s="32" t="s">
+      <c r="CQ4" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="CP4" s="32" t="s">
+      <c r="CR4" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="CQ4" s="32" t="s">
+      <c r="CS4" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="CR4" s="32" t="s">
+      <c r="CT4" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="CS4" s="32" t="s">
+      <c r="CU4" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="CT4" s="32" t="s">
+      <c r="CV4" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="CU4" s="32" t="s">
+      <c r="CW4" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="CV4" s="32" t="s">
+      <c r="CX4" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="CW4" s="32" t="s">
+      <c r="CY4" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="CX4" s="32" t="s">
+      <c r="CZ4" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="CY4" s="32" t="s">
+      <c r="DA4" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="CZ4" s="32" t="s">
+      <c r="DB4" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="DA4" s="32" t="s">
+      <c r="DC4" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="DB4" s="32" t="s">
+      <c r="DD4" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="DC4" s="32" t="s">
+      <c r="DE4" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="DD4" s="32" t="s">
+      <c r="DF4" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="DE4" s="32" t="s">
+      <c r="DG4" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="DF4" s="32" t="s">
+      <c r="DH4" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="DG4" s="97" t="s">
+      <c r="DI4" s="97" t="s">
         <v>540</v>
       </c>
-      <c r="DH4" s="32" t="s">
+      <c r="DJ4" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="DI4" s="32" t="s">
+      <c r="DK4" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="DJ4" s="32" t="s">
+      <c r="DL4" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="DK4" s="26" t="s">
+      <c r="DM4" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="DL4" s="26" t="s">
+      <c r="DN4" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="DM4" s="21" t="s">
+      <c r="DO4" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="DN4" s="21" t="s">
+      <c r="DP4" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="DO4" s="21" t="s">
+      <c r="DQ4" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="DP4" s="21" t="s">
+      <c r="DR4" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="DQ4" s="21" t="s">
+      <c r="DS4" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="DR4" s="21" t="s">
+      <c r="DT4" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="DS4" s="21" t="s">
+      <c r="DU4" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="DT4" s="21" t="s">
+      <c r="DV4" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="DU4" s="21" t="s">
+      <c r="DW4" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="DV4" s="21" t="s">
+      <c r="DX4" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="DW4" s="21" t="s">
+      <c r="DY4" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="DX4" s="21" t="s">
+      <c r="DZ4" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="DY4" s="21" t="s">
+      <c r="EA4" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="DZ4" s="21" t="s">
+      <c r="EB4" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="EA4" s="65" t="s">
+      <c r="EC4" s="65" t="s">
         <v>183</v>
       </c>
-      <c r="EB4" s="48" t="s">
+      <c r="ED4" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="EC4" s="48" t="s">
+      <c r="EE4" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="ED4" s="48" t="s">
+      <c r="EF4" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="EE4" s="48" t="s">
+      <c r="EG4" s="48" t="s">
         <v>187</v>
       </c>
-      <c r="EF4" s="48" t="s">
+      <c r="EH4" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="EG4" s="48" t="s">
+      <c r="EI4" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="EH4" s="48" t="s">
+      <c r="EJ4" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="EI4" s="48" t="s">
+      <c r="EK4" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="EJ4" s="48" t="s">
+      <c r="EL4" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="EK4" s="48" t="s">
+      <c r="EM4" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="EL4" s="48" t="s">
+      <c r="EN4" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="EM4" s="43" t="s">
+      <c r="EO4" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="EN4" s="43" t="s">
+      <c r="EP4" s="43" t="s">
         <v>196</v>
       </c>
-      <c r="EO4" s="43" t="s">
+      <c r="EQ4" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="EP4" s="43" t="s">
+      <c r="ER4" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="EQ4" s="43" t="s">
+      <c r="ES4" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="ER4" s="43" t="s">
+      <c r="ET4" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="ES4" s="43" t="s">
+      <c r="EU4" s="43" t="s">
         <v>201</v>
       </c>
-      <c r="ET4" s="43" t="s">
+      <c r="EV4" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="EU4" s="43" t="s">
+      <c r="EW4" s="43" t="s">
         <v>203</v>
       </c>
-      <c r="EV4" s="43" t="s">
+      <c r="EX4" s="43" t="s">
         <v>204</v>
       </c>
-      <c r="EW4" s="43" t="s">
+      <c r="EY4" s="43" t="s">
         <v>205</v>
       </c>
-      <c r="EX4" s="37" t="s">
+      <c r="EZ4" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="EY4" s="37" t="s">
+      <c r="FA4" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="EZ4" s="21" t="s">
+      <c r="FB4" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="FA4" s="21" t="s">
+      <c r="FC4" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="FB4" s="21" t="s">
+      <c r="FD4" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="FC4" s="21" t="s">
+      <c r="FE4" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="FD4" s="48" t="s">
+      <c r="FF4" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="FE4" s="48" t="s">
+      <c r="FG4" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="FF4" s="48" t="s">
+      <c r="FH4" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="FG4" s="48" t="s">
+      <c r="FI4" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="FH4" s="48" t="s">
+      <c r="FJ4" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="FI4" s="48" t="s">
+      <c r="FK4" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="FJ4" s="48" t="s">
+      <c r="FL4" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="FK4" s="48" t="s">
+      <c r="FM4" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="FL4" s="48" t="s">
+      <c r="FN4" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="FM4" s="48" t="s">
+      <c r="FO4" s="48" t="s">
         <v>221</v>
       </c>
-      <c r="FN4" s="43" t="s">
+      <c r="FP4" s="43" t="s">
         <v>222</v>
       </c>
-      <c r="FO4" s="43" t="s">
+      <c r="FQ4" s="43" t="s">
         <v>223</v>
       </c>
-      <c r="FP4" s="43" t="s">
+      <c r="FR4" s="43" t="s">
         <v>224</v>
       </c>
-      <c r="FQ4" s="43" t="s">
+      <c r="FS4" s="43" t="s">
         <v>225</v>
       </c>
-      <c r="FR4" s="43" t="s">
+      <c r="FT4" s="43" t="s">
         <v>226</v>
       </c>
-      <c r="FS4" s="43" t="s">
+      <c r="FU4" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="FT4" s="43" t="s">
+      <c r="FV4" s="43" t="s">
         <v>228</v>
       </c>
-      <c r="FU4" s="43" t="s">
+      <c r="FW4" s="43" t="s">
         <v>229</v>
       </c>
-      <c r="FV4" s="43" t="s">
+      <c r="FX4" s="43" t="s">
         <v>230</v>
       </c>
-      <c r="FW4" s="43" t="s">
+      <c r="FY4" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="FX4" s="43" t="s">
+      <c r="FZ4" s="43" t="s">
         <v>232</v>
       </c>
-      <c r="FY4" s="43" t="s">
+      <c r="GA4" s="43" t="s">
         <v>233</v>
       </c>
-      <c r="FZ4" s="37" t="s">
+      <c r="GB4" s="37" t="s">
         <v>234</v>
       </c>
-      <c r="GA4" s="37" t="s">
+      <c r="GC4" s="37" t="s">
         <v>235</v>
       </c>
-      <c r="GB4" s="37" t="s">
+      <c r="GD4" s="37" t="s">
         <v>236</v>
       </c>
-      <c r="GC4" s="37" t="s">
+      <c r="GE4" s="37" t="s">
         <v>237</v>
       </c>
-      <c r="GD4" s="37" t="s">
+      <c r="GF4" s="37" t="s">
         <v>238</v>
       </c>
-      <c r="GE4" s="37" t="s">
+      <c r="GG4" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="GF4" s="37" t="s">
+      <c r="GH4" s="37" t="s">
         <v>240</v>
       </c>
-      <c r="GG4" s="32" t="s">
+      <c r="GI4" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="GH4" s="32" t="s">
+      <c r="GJ4" s="32" t="s">
         <v>242</v>
       </c>
-      <c r="GI4" s="32" t="s">
+      <c r="GK4" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="GJ4" s="32" t="s">
+      <c r="GL4" s="32" t="s">
         <v>244</v>
       </c>
-      <c r="GK4" s="32" t="s">
+      <c r="GM4" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="GL4" s="26" t="s">
+      <c r="GN4" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="GM4" s="26" t="s">
+      <c r="GO4" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="GN4" s="26" t="s">
+      <c r="GP4" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="GO4" s="26" t="s">
+      <c r="GQ4" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="GP4" s="26" t="s">
+      <c r="GR4" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="GQ4" s="48" t="s">
+      <c r="GS4" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="GR4" s="48" t="s">
+      <c r="GT4" s="48" t="s">
         <v>252</v>
       </c>
-      <c r="GS4" s="48" t="s">
+      <c r="GU4" s="48" t="s">
         <v>253</v>
       </c>
-      <c r="GT4" s="48" t="s">
+      <c r="GV4" s="48" t="s">
         <v>254</v>
       </c>
-      <c r="GU4" s="48" t="s">
+      <c r="GW4" s="48" t="s">
         <v>255</v>
       </c>
-      <c r="GV4" s="48" t="s">
+      <c r="GX4" s="48" t="s">
         <v>256</v>
       </c>
-      <c r="GW4" s="48" t="s">
+      <c r="GY4" s="48" t="s">
         <v>257</v>
       </c>
-      <c r="GX4" s="48" t="s">
+      <c r="GZ4" s="48" t="s">
         <v>258</v>
       </c>
-      <c r="GY4" s="48" t="s">
+      <c r="HA4" s="48" t="s">
         <v>259</v>
       </c>
-      <c r="GZ4" s="48" t="s">
+      <c r="HB4" s="48" t="s">
         <v>260</v>
       </c>
-      <c r="HA4" s="48" t="s">
+      <c r="HC4" s="48" t="s">
         <v>261</v>
       </c>
-      <c r="HB4" s="48" t="s">
+      <c r="HD4" s="48" t="s">
         <v>262</v>
       </c>
-      <c r="HC4" s="48" t="s">
+      <c r="HE4" s="48" t="s">
         <v>263</v>
       </c>
-      <c r="HD4" s="48" t="s">
+      <c r="HF4" s="48" t="s">
         <v>264</v>
       </c>
-      <c r="HE4" s="48" t="s">
+      <c r="HG4" s="48" t="s">
         <v>265</v>
       </c>
-      <c r="HF4" s="48" t="s">
+      <c r="HH4" s="48" t="s">
         <v>266</v>
       </c>
-      <c r="HG4" s="43" t="s">
+      <c r="HI4" s="43" t="s">
         <v>267</v>
       </c>
-      <c r="HH4" s="43" t="s">
+      <c r="HJ4" s="43" t="s">
         <v>268</v>
       </c>
-      <c r="HI4" s="43" t="s">
+      <c r="HK4" s="43" t="s">
         <v>269</v>
       </c>
-      <c r="HJ4" s="43" t="s">
+      <c r="HL4" s="43" t="s">
         <v>270</v>
       </c>
-      <c r="HK4" s="43" t="s">
+      <c r="HM4" s="43" t="s">
         <v>271</v>
       </c>
-      <c r="HL4" s="43" t="s">
+      <c r="HN4" s="43" t="s">
         <v>272</v>
       </c>
-      <c r="HM4" s="83" t="s">
+      <c r="HO4" s="83" t="s">
         <v>273</v>
       </c>
-      <c r="HN4" s="83" t="s">
+      <c r="HP4" s="83" t="s">
         <v>274</v>
       </c>
-      <c r="HO4" s="4" t="s">
+      <c r="HQ4" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="HP4" s="4" t="s">
+      <c r="HR4" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="HQ4" s="4" t="s">
+      <c r="HS4" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="HR4" s="4" t="s">
+      <c r="HT4" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="HS4" s="4" t="s">
+      <c r="HU4" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="HT4" s="4" t="s">
+      <c r="HV4" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="HU4" s="4" t="s">
+      <c r="HW4" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="HV4" s="4" t="s">
+      <c r="HX4" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="HW4" s="4" t="s">
+      <c r="HY4" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="HX4" s="4" t="s">
+      <c r="HZ4" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="HY4" s="4" t="s">
+      <c r="IA4" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="HZ4" s="4" t="s">
+      <c r="IB4" s="4" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="5" spans="1:234" s="93" customFormat="1" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:236" s="93" customFormat="1" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="94" t="s">
         <v>0</v>
       </c>
@@ -4498,593 +4525,599 @@
       <c r="AK5" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="AL5" s="6" t="s">
+      <c r="AL5" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="AM5" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="AN5" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="AM5" s="6" t="s">
+      <c r="AO5" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="AN5" s="5" t="s">
+      <c r="AP5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AO5" s="6" t="s">
+      <c r="AQ5" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="AP5" s="6" t="s">
+      <c r="AR5" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="AQ5" s="5" t="s">
+      <c r="AS5" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="AR5" s="5" t="s">
+      <c r="AT5" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="AS5" s="5" t="s">
+      <c r="AU5" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="AT5" s="6" t="s">
+      <c r="AV5" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="AU5" s="6" t="s">
+      <c r="AW5" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="AV5" s="5" t="s">
+      <c r="AX5" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="AW5" s="6" t="s">
+      <c r="AY5" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="AX5" s="6" t="s">
+      <c r="AZ5" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="AY5" s="94" t="s">
+      <c r="BA5" s="94" t="s">
         <v>327</v>
       </c>
-      <c r="AZ5" s="94" t="s">
+      <c r="BB5" s="94" t="s">
         <v>328</v>
       </c>
-      <c r="BA5" s="94" t="s">
+      <c r="BC5" s="94" t="s">
         <v>329</v>
       </c>
-      <c r="BB5" s="6" t="s">
+      <c r="BD5" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="BC5" s="6" t="s">
+      <c r="BE5" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="BD5" s="5" t="s">
+      <c r="BF5" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="BE5" s="94" t="s">
+      <c r="BG5" s="94" t="s">
         <v>332</v>
       </c>
-      <c r="BF5" s="5" t="s">
+      <c r="BH5" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="BG5" s="5"/>
-      <c r="BH5" s="5" t="s">
+      <c r="BI5" s="5"/>
+      <c r="BJ5" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="BI5" s="5" t="s">
+      <c r="BK5" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="BJ5" s="5"/>
-      <c r="BK5" s="94" t="s">
+      <c r="BL5" s="5"/>
+      <c r="BM5" s="94" t="s">
         <v>336</v>
       </c>
-      <c r="BL5" s="6" t="s">
+      <c r="BN5" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="BM5" s="6" t="s">
+      <c r="BO5" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="BN5" s="5" t="s">
+      <c r="BP5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="BO5" s="6" t="s">
+      <c r="BQ5" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="BP5" s="6" t="s">
+      <c r="BR5" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="BQ5" s="5" t="s">
+      <c r="BS5" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="BR5" s="5" t="s">
+      <c r="BT5" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="BS5" s="5" t="s">
+      <c r="BU5" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="BT5" s="6" t="s">
+      <c r="BV5" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="BU5" s="6" t="s">
+      <c r="BW5" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="BV5" s="5" t="s">
+      <c r="BX5" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="BW5" s="6" t="s">
+      <c r="BY5" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="BX5" s="6" t="s">
+      <c r="BZ5" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="BY5" s="94" t="s">
+      <c r="CA5" s="94" t="s">
         <v>327</v>
       </c>
-      <c r="BZ5" s="94" t="s">
+      <c r="CB5" s="94" t="s">
         <v>328</v>
       </c>
-      <c r="CA5" s="94" t="s">
+      <c r="CC5" s="94" t="s">
         <v>329</v>
       </c>
-      <c r="CB5" s="6" t="s">
+      <c r="CD5" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="CC5" s="6" t="s">
+      <c r="CE5" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="CD5" s="5" t="s">
+      <c r="CF5" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="CE5" s="94" t="s">
+      <c r="CG5" s="94" t="s">
         <v>332</v>
       </c>
-      <c r="CF5" s="5" t="s">
+      <c r="CH5" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="CG5" s="5" t="s">
+      <c r="CI5" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="CH5" s="5" t="s">
+      <c r="CJ5" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="CI5" s="94" t="s">
+      <c r="CK5" s="94" t="s">
         <v>336</v>
       </c>
-      <c r="CJ5" s="6" t="s">
+      <c r="CL5" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="CK5" s="6" t="s">
+      <c r="CM5" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="CL5" s="5" t="s">
+      <c r="CN5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="CM5" s="6" t="s">
+      <c r="CO5" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="CN5" s="6" t="s">
+      <c r="CP5" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="CO5" s="5" t="s">
+      <c r="CQ5" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="CP5" s="5" t="s">
+      <c r="CR5" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="CQ5" s="5" t="s">
+      <c r="CS5" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="CR5" s="6" t="s">
+      <c r="CT5" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="CS5" s="6" t="s">
+      <c r="CU5" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="CT5" s="5" t="s">
+      <c r="CV5" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="CU5" s="6" t="s">
+      <c r="CW5" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="CV5" s="6" t="s">
+      <c r="CX5" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="CW5" s="94" t="s">
+      <c r="CY5" s="94" t="s">
         <v>327</v>
       </c>
-      <c r="CX5" s="94" t="s">
+      <c r="CZ5" s="94" t="s">
         <v>328</v>
       </c>
-      <c r="CY5" s="94" t="s">
+      <c r="DA5" s="94" t="s">
         <v>329</v>
       </c>
-      <c r="CZ5" s="6" t="s">
+      <c r="DB5" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="DA5" s="6" t="s">
+      <c r="DC5" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="DB5" s="5" t="s">
+      <c r="DD5" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="DC5" s="94" t="s">
+      <c r="DE5" s="94" t="s">
         <v>332</v>
       </c>
-      <c r="DD5" s="5" t="s">
+      <c r="DF5" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="DE5" s="5" t="s">
+      <c r="DG5" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="DF5" s="5" t="s">
+      <c r="DH5" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="DG5" s="5"/>
-      <c r="DH5" s="94" t="s">
+      <c r="DI5" s="5"/>
+      <c r="DJ5" s="94" t="s">
         <v>336</v>
       </c>
-      <c r="DI5" s="6" t="s">
+      <c r="DK5" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="DJ5" s="6" t="s">
+      <c r="DL5" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="DK5" s="6" t="s">
+      <c r="DM5" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="DL5" s="6" t="s">
+      <c r="DN5" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="DM5" s="5" t="s">
+      <c r="DO5" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="DN5" s="5" t="s">
+      <c r="DP5" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="DO5" s="94" t="s">
+      <c r="DQ5" s="94" t="s">
         <v>341</v>
       </c>
-      <c r="DP5" s="94" t="s">
+      <c r="DR5" s="94" t="s">
         <v>342</v>
       </c>
-      <c r="DQ5" s="94" t="s">
+      <c r="DS5" s="94" t="s">
         <v>343</v>
       </c>
-      <c r="DR5" s="6" t="s">
+      <c r="DT5" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="DS5" s="6" t="s">
+      <c r="DU5" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="DT5" s="5" t="s">
+      <c r="DV5" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="DU5" s="5" t="s">
+      <c r="DW5" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="DV5" s="5" t="s">
+      <c r="DX5" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="DW5" s="5" t="s">
+      <c r="DY5" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="DX5" s="5" t="s">
+      <c r="DZ5" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="DY5" s="5" t="s">
+      <c r="EA5" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="DZ5" s="6" t="s">
+      <c r="EB5" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="EA5" s="6" t="s">
+      <c r="EC5" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="EB5" s="5" t="s">
+      <c r="ED5" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="EC5" s="5" t="s">
+      <c r="EE5" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="ED5" s="5" t="s">
+      <c r="EF5" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="EE5" s="94" t="s">
+      <c r="EG5" s="94" t="s">
         <v>355</v>
       </c>
-      <c r="EF5" s="94" t="s">
+      <c r="EH5" s="94" t="s">
         <v>356</v>
       </c>
-      <c r="EG5" s="94" t="s">
+      <c r="EI5" s="94" t="s">
         <v>357</v>
       </c>
-      <c r="EH5" s="94" t="s">
+      <c r="EJ5" s="94" t="s">
         <v>358</v>
       </c>
-      <c r="EI5" s="94" t="s">
+      <c r="EK5" s="94" t="s">
         <v>359</v>
       </c>
-      <c r="EJ5" s="94" t="s">
+      <c r="EL5" s="94" t="s">
         <v>360</v>
       </c>
-      <c r="EK5" s="6" t="s">
+      <c r="EM5" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="EL5" s="6" t="s">
+      <c r="EN5" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="EM5" s="5" t="s">
+      <c r="EO5" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="EN5" s="5" t="s">
+      <c r="EP5" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="EO5" s="5" t="s">
+      <c r="EQ5" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="EP5" s="94" t="s">
+      <c r="ER5" s="94" t="s">
         <v>365</v>
       </c>
-      <c r="EQ5" s="94" t="s">
+      <c r="ES5" s="94" t="s">
         <v>366</v>
       </c>
-      <c r="ER5" s="94" t="s">
+      <c r="ET5" s="94" t="s">
         <v>367</v>
       </c>
-      <c r="ES5" s="5" t="s">
+      <c r="EU5" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="ET5" s="94" t="s">
+      <c r="EV5" s="94" t="s">
         <v>369</v>
       </c>
-      <c r="EU5" s="5" t="s">
+      <c r="EW5" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="EV5" s="6" t="s">
+      <c r="EX5" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="EW5" s="6" t="s">
+      <c r="EY5" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="EX5" s="6" t="s">
+      <c r="EZ5" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="EY5" s="6" t="s">
+      <c r="FA5" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="EZ5" s="5" t="s">
+      <c r="FB5" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="FA5" s="5" t="s">
+      <c r="FC5" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="FB5" s="6" t="s">
+      <c r="FD5" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="FC5" s="6" t="s">
+      <c r="FE5" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="FD5" s="5" t="s">
+      <c r="FF5" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="FE5" s="5" t="s">
+      <c r="FG5" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="FF5" s="5" t="s">
+      <c r="FH5" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="FG5" s="5" t="s">
+      <c r="FI5" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="FH5" s="5" t="s">
+      <c r="FJ5" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="FI5" s="5" t="s">
+      <c r="FK5" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="FJ5" s="5" t="s">
+      <c r="FL5" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="FK5" s="5" t="s">
+      <c r="FM5" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="FL5" s="6" t="s">
+      <c r="FN5" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="FM5" s="6" t="s">
+      <c r="FO5" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="FN5" s="5" t="s">
+      <c r="FP5" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="FO5" s="5" t="s">
+      <c r="FQ5" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="FP5" s="5" t="s">
+      <c r="FR5" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="FQ5" s="5" t="s">
+      <c r="FS5" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="FR5" s="94" t="s">
+      <c r="FT5" s="94" t="s">
         <v>367</v>
       </c>
-      <c r="FS5" s="94" t="s">
+      <c r="FU5" s="94" t="s">
         <v>369</v>
       </c>
-      <c r="FT5" s="5" t="s">
+      <c r="FV5" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="FU5" s="5" t="s">
+      <c r="FW5" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="FV5" s="5" t="s">
+      <c r="FX5" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="FW5" s="5" t="s">
+      <c r="FY5" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="FX5" s="6" t="s">
+      <c r="FZ5" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="FY5" s="6" t="s">
+      <c r="GA5" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="FZ5" s="94" t="s">
+      <c r="GB5" s="94" t="s">
         <v>391</v>
       </c>
-      <c r="GA5" s="5" t="s">
+      <c r="GC5" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="GB5" s="94" t="s">
+      <c r="GD5" s="94" t="s">
         <v>393</v>
       </c>
-      <c r="GC5" s="5" t="s">
+      <c r="GE5" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="GD5" s="5" t="s">
+      <c r="GF5" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="GE5" s="6" t="s">
+      <c r="GG5" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="GF5" s="6" t="s">
+      <c r="GH5" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="GG5" s="5" t="s">
+      <c r="GI5" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="GH5" s="5" t="s">
+      <c r="GJ5" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="GI5" s="5" t="s">
+      <c r="GK5" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="GJ5" s="6" t="s">
+      <c r="GL5" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="GK5" s="6" t="s">
+      <c r="GM5" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="GL5" s="5" t="s">
+      <c r="GN5" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="GM5" s="5" t="s">
+      <c r="GO5" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="GN5" s="5" t="s">
+      <c r="GP5" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="GO5" s="6" t="s">
+      <c r="GQ5" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="GP5" s="6" t="s">
+      <c r="GR5" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="GQ5" s="94" t="s">
+      <c r="GS5" s="94" t="s">
         <v>402</v>
       </c>
-      <c r="GR5" s="94" t="s">
+      <c r="GT5" s="94" t="s">
         <v>403</v>
       </c>
-      <c r="GS5" s="94" t="s">
+      <c r="GU5" s="94" t="s">
         <v>404</v>
       </c>
-      <c r="GT5" s="94" t="s">
+      <c r="GV5" s="94" t="s">
         <v>405</v>
       </c>
-      <c r="GU5" s="94" t="s">
+      <c r="GW5" s="94" t="s">
         <v>406</v>
       </c>
-      <c r="GV5" s="94" t="s">
+      <c r="GX5" s="94" t="s">
         <v>407</v>
       </c>
-      <c r="GW5" s="94" t="s">
+      <c r="GY5" s="94" t="s">
         <v>408</v>
       </c>
-      <c r="GX5" s="94" t="s">
+      <c r="GZ5" s="94" t="s">
         <v>409</v>
       </c>
-      <c r="GY5" s="94" t="s">
+      <c r="HA5" s="94" t="s">
         <v>410</v>
       </c>
-      <c r="GZ5" s="94" t="s">
+      <c r="HB5" s="94" t="s">
         <v>411</v>
       </c>
-      <c r="HA5" s="94" t="s">
+      <c r="HC5" s="94" t="s">
         <v>412</v>
       </c>
-      <c r="HB5" s="94" t="s">
+      <c r="HD5" s="94" t="s">
         <v>413</v>
       </c>
-      <c r="HC5" s="94" t="s">
+      <c r="HE5" s="94" t="s">
         <v>414</v>
       </c>
-      <c r="HD5" s="94" t="s">
+      <c r="HF5" s="94" t="s">
         <v>415</v>
       </c>
-      <c r="HE5" s="6" t="s">
+      <c r="HG5" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="HF5" s="6" t="s">
+      <c r="HH5" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="HG5" s="94" t="s">
+      <c r="HI5" s="94" t="s">
         <v>417</v>
       </c>
-      <c r="HH5" s="94" t="s">
+      <c r="HJ5" s="94" t="s">
         <v>418</v>
       </c>
-      <c r="HI5" s="94" t="s">
+      <c r="HK5" s="94" t="s">
         <v>419</v>
       </c>
-      <c r="HJ5" s="94" t="s">
+      <c r="HL5" s="94" t="s">
         <v>420</v>
       </c>
-      <c r="HK5" s="6" t="s">
+      <c r="HM5" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="HL5" s="6" t="s">
+      <c r="HN5" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="HM5" s="6" t="s">
+      <c r="HO5" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="HN5" s="6" t="s">
+      <c r="HP5" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="HO5" s="5" t="s">
+      <c r="HQ5" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="HP5" s="5" t="s">
+      <c r="HR5" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="HQ5" s="6" t="s">
+      <c r="HS5" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="HR5" s="6" t="s">
+      <c r="HT5" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="HS5" s="5" t="s">
+      <c r="HU5" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="HT5" s="6" t="s">
+      <c r="HV5" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="HU5" s="6" t="s">
+      <c r="HW5" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="HV5" s="5" t="s">
+      <c r="HX5" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="HW5" s="6" t="s">
+      <c r="HY5" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="HX5" s="6" t="s">
+      <c r="HZ5" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="HY5" s="6" t="s">
+      <c r="IA5" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="HZ5" s="6" t="s">
+      <c r="IB5" s="6" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="6" spans="1:234" s="7" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:236" s="7" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>431</v>
       </c>
@@ -5197,262 +5230,262 @@
         <v>463</v>
       </c>
       <c r="AL6" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="AM6" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="AN6" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="AM6" s="9" t="s">
+      <c r="AO6" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="AN6" s="9" t="s">
+      <c r="AP6" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="AO6" s="9" t="s">
+      <c r="AQ6" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="AP6" s="9" t="s">
+      <c r="AR6" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="AQ6" s="9" t="s">
+      <c r="AS6" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="AR6" s="9" t="s">
+      <c r="AT6" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="AS6" s="9" t="s">
+      <c r="AU6" s="9" t="s">
         <v>468</v>
       </c>
-      <c r="AT6" s="9" t="s">
+      <c r="AV6" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="AU6" s="9" t="s">
+      <c r="AW6" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="AV6" s="9" t="s">
+      <c r="AX6" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="AW6" s="9" t="s">
+      <c r="AY6" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="AX6" s="9" t="s">
+      <c r="AZ6" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="AY6" s="9" t="s">
+      <c r="BA6" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="AZ6" s="9" t="s">
+      <c r="BB6" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="BA6" s="9" t="s">
+      <c r="BC6" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="BB6" s="9" t="s">
+      <c r="BD6" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="BC6" s="9" t="s">
+      <c r="BE6" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="BD6" s="9" t="s">
+      <c r="BF6" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="BE6" s="9" t="s">
+      <c r="BG6" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="BF6" s="9" t="s">
+      <c r="BH6" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="BG6" s="9"/>
-      <c r="BH6" s="9" t="s">
+      <c r="BI6" s="9"/>
+      <c r="BJ6" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="BI6" s="9" t="s">
+      <c r="BK6" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="BJ6" s="9"/>
-      <c r="BK6" s="9" t="s">
+      <c r="BL6" s="9"/>
+      <c r="BM6" s="9" t="s">
         <v>479</v>
       </c>
-      <c r="BL6" s="9" t="s">
+      <c r="BN6" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="BM6" s="9" t="s">
+      <c r="BO6" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="BN6" s="9" t="s">
+      <c r="BP6" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="BO6" s="9" t="s">
+      <c r="BQ6" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="BP6" s="9" t="s">
+      <c r="BR6" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="BQ6" s="9" t="s">
+      <c r="BS6" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="BR6" s="9" t="s">
+      <c r="BT6" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="BS6" s="9" t="s">
+      <c r="BU6" s="9" t="s">
         <v>468</v>
       </c>
-      <c r="BT6" s="9" t="s">
+      <c r="BV6" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="BU6" s="9" t="s">
+      <c r="BW6" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="BV6" s="9" t="s">
+      <c r="BX6" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="BW6" s="9" t="s">
+      <c r="BY6" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="BX6" s="9" t="s">
+      <c r="BZ6" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="BY6" s="9" t="s">
+      <c r="CA6" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="BZ6" s="9" t="s">
+      <c r="CB6" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="CA6" s="9" t="s">
+      <c r="CC6" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="CB6" s="9" t="s">
+      <c r="CD6" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="CC6" s="9" t="s">
+      <c r="CE6" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="CD6" s="9" t="s">
+      <c r="CF6" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="CE6" s="9" t="s">
+      <c r="CG6" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="CF6" s="9" t="s">
+      <c r="CH6" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="CG6" s="9" t="s">
+      <c r="CI6" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="CH6" s="9" t="s">
+      <c r="CJ6" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="CI6" s="9" t="s">
+      <c r="CK6" s="9" t="s">
         <v>479</v>
       </c>
-      <c r="CJ6" s="9" t="s">
+      <c r="CL6" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="CK6" s="9" t="s">
+      <c r="CM6" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="CL6" s="9" t="s">
+      <c r="CN6" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="CM6" s="9" t="s">
+      <c r="CO6" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="CN6" s="9" t="s">
+      <c r="CP6" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="CO6" s="9" t="s">
+      <c r="CQ6" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="CP6" s="9" t="s">
+      <c r="CR6" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="CQ6" s="9" t="s">
+      <c r="CS6" s="9" t="s">
         <v>468</v>
       </c>
-      <c r="CR6" s="9" t="s">
+      <c r="CT6" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="CS6" s="9" t="s">
+      <c r="CU6" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="CT6" s="9" t="s">
+      <c r="CV6" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="CU6" s="9" t="s">
+      <c r="CW6" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="CV6" s="9" t="s">
+      <c r="CX6" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="CW6" s="9" t="s">
+      <c r="CY6" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="CX6" s="9" t="s">
+      <c r="CZ6" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="CY6" s="9" t="s">
+      <c r="DA6" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="CZ6" s="9" t="s">
+      <c r="DB6" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="DA6" s="9" t="s">
+      <c r="DC6" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="DB6" s="9" t="s">
+      <c r="DD6" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="DC6" s="9" t="s">
+      <c r="DE6" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="DD6" s="9" t="s">
+      <c r="DF6" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="DE6" s="9" t="s">
+      <c r="DG6" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="DF6" s="9" t="s">
+      <c r="DH6" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="DG6" s="9"/>
-      <c r="DH6" s="9" t="s">
+      <c r="DI6" s="9"/>
+      <c r="DJ6" s="9" t="s">
         <v>479</v>
       </c>
-      <c r="DI6" s="9" t="s">
+      <c r="DK6" s="9" t="s">
         <v>470</v>
-      </c>
-      <c r="DJ6" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="DK6" s="9" t="s">
-        <v>449</v>
       </c>
       <c r="DL6" s="9" t="s">
         <v>450</v>
       </c>
       <c r="DM6" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="DN6" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="DO6" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="DN6" s="9" t="s">
+      <c r="DP6" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="DO6" s="9" t="s">
+      <c r="DQ6" s="9" t="s">
         <v>482</v>
       </c>
-      <c r="DP6" s="9" t="s">
+      <c r="DR6" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="DQ6" s="9" t="s">
+      <c r="DS6" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="DR6" s="9" t="s">
+      <c r="DT6" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="DS6" s="9" t="s">
+      <c r="DU6" s="9" t="s">
         <v>450</v>
-      </c>
-      <c r="DT6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="DU6" s="9" t="s">
-        <v>485</v>
       </c>
       <c r="DV6" s="9" t="s">
         <v>485</v>
@@ -5467,16 +5500,16 @@
         <v>485</v>
       </c>
       <c r="DZ6" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="EA6" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="EB6" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="EA6" s="9" t="s">
+      <c r="EC6" s="9" t="s">
         <v>449</v>
-      </c>
-      <c r="EB6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="EC6" s="9" t="s">
-        <v>485</v>
       </c>
       <c r="ED6" s="9" t="s">
         <v>485</v>
@@ -5500,16 +5533,16 @@
         <v>485</v>
       </c>
       <c r="EK6" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="EL6" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="EM6" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="EL6" s="9" t="s">
+      <c r="EN6" s="9" t="s">
         <v>449</v>
-      </c>
-      <c r="EM6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="EN6" s="9" t="s">
-        <v>485</v>
       </c>
       <c r="EO6" s="9" t="s">
         <v>485</v>
@@ -5533,10 +5566,10 @@
         <v>485</v>
       </c>
       <c r="EV6" s="9" t="s">
-        <v>450</v>
+        <v>485</v>
       </c>
       <c r="EW6" s="9" t="s">
-        <v>449</v>
+        <v>485</v>
       </c>
       <c r="EX6" s="9" t="s">
         <v>450</v>
@@ -5545,22 +5578,22 @@
         <v>449</v>
       </c>
       <c r="EZ6" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="FA6" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="FB6" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="FA6" s="9" t="s">
+      <c r="FC6" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="FB6" s="9" t="s">
+      <c r="FD6" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="FC6" s="9" t="s">
+      <c r="FE6" s="9" t="s">
         <v>449</v>
-      </c>
-      <c r="FD6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="FE6" s="9" t="s">
-        <v>485</v>
       </c>
       <c r="FF6" s="9" t="s">
         <v>485</v>
@@ -5581,16 +5614,16 @@
         <v>485</v>
       </c>
       <c r="FL6" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="FM6" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="FN6" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="FM6" s="9" t="s">
+      <c r="FO6" s="9" t="s">
         <v>449</v>
-      </c>
-      <c r="FN6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="FO6" s="9" t="s">
-        <v>485</v>
       </c>
       <c r="FP6" s="9" t="s">
         <v>485</v>
@@ -5617,16 +5650,16 @@
         <v>485</v>
       </c>
       <c r="FX6" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="FY6" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="FZ6" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="FY6" s="9" t="s">
+      <c r="GA6" s="9" t="s">
         <v>449</v>
-      </c>
-      <c r="FZ6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="GA6" s="9" t="s">
-        <v>485</v>
       </c>
       <c r="GB6" s="9" t="s">
         <v>485</v>
@@ -5638,46 +5671,46 @@
         <v>485</v>
       </c>
       <c r="GE6" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="GF6" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="GG6" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="GF6" s="9" t="s">
+      <c r="GH6" s="9" t="s">
         <v>449</v>
-      </c>
-      <c r="GG6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="GH6" s="9" t="s">
-        <v>485</v>
       </c>
       <c r="GI6" s="9" t="s">
         <v>485</v>
       </c>
       <c r="GJ6" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="GK6" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="GL6" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="GK6" s="9" t="s">
+      <c r="GM6" s="9" t="s">
         <v>449</v>
-      </c>
-      <c r="GL6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="GM6" s="9" t="s">
-        <v>485</v>
       </c>
       <c r="GN6" s="9" t="s">
         <v>485</v>
       </c>
       <c r="GO6" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="GP6" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="GQ6" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="GP6" s="9" t="s">
+      <c r="GR6" s="9" t="s">
         <v>449</v>
-      </c>
-      <c r="GQ6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="GR6" s="9" t="s">
-        <v>485</v>
       </c>
       <c r="GS6" s="9" t="s">
         <v>485</v>
@@ -5716,16 +5749,16 @@
         <v>485</v>
       </c>
       <c r="HE6" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="HF6" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="HG6" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="HF6" s="9" t="s">
+      <c r="HH6" s="9" t="s">
         <v>449</v>
-      </c>
-      <c r="HG6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="HH6" s="9" t="s">
-        <v>485</v>
       </c>
       <c r="HI6" s="9" t="s">
         <v>485</v>
@@ -5734,10 +5767,10 @@
         <v>485</v>
       </c>
       <c r="HK6" s="9" t="s">
-        <v>450</v>
+        <v>485</v>
       </c>
       <c r="HL6" s="9" t="s">
-        <v>449</v>
+        <v>485</v>
       </c>
       <c r="HM6" s="9" t="s">
         <v>450</v>
@@ -5746,34 +5779,34 @@
         <v>449</v>
       </c>
       <c r="HO6" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="HP6" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="HQ6" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="HP6" s="9" t="s">
+      <c r="HR6" s="9" t="s">
         <v>488</v>
       </c>
-      <c r="HQ6" s="9" t="s">
+      <c r="HS6" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="HR6" s="9" t="s">
+      <c r="HT6" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="HS6" s="9" t="s">
+      <c r="HU6" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="HT6" s="9" t="s">
+      <c r="HV6" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="HU6" s="9" t="s">
+      <c r="HW6" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="HV6" s="9" t="s">
+      <c r="HX6" s="9" t="s">
         <v>490</v>
-      </c>
-      <c r="HW6" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="HX6" s="9" t="s">
-        <v>449</v>
       </c>
       <c r="HY6" s="9" t="s">
         <v>450</v>
@@ -5781,8 +5814,14 @@
       <c r="HZ6" s="9" t="s">
         <v>449</v>
       </c>
+      <c r="IA6" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="IB6" s="9" t="s">
+        <v>449</v>
+      </c>
     </row>
-    <row r="7" spans="1:234" s="7" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:236" s="7" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>491</v>
       </c>
@@ -5895,10 +5934,10 @@
         <v>508</v>
       </c>
       <c r="AL7" s="10" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="AM7" s="10" t="s">
-        <v>495</v>
+        <v>509</v>
       </c>
       <c r="AN7" s="10" t="s">
         <v>495</v>
@@ -5913,66 +5952,66 @@
         <v>495</v>
       </c>
       <c r="AR7" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="AS7" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="AT7" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="AS7" s="10" t="s">
+      <c r="AU7" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="AT7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="AU7" s="10" t="s">
-        <v>495</v>
-      </c>
       <c r="AV7" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="AW7" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="AX7" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="AW7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="AX7" s="10" t="s">
-        <v>495</v>
-      </c>
       <c r="AY7" s="10" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="AZ7" s="10" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="BA7" s="10" t="s">
         <v>510</v>
       </c>
       <c r="BB7" s="10" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="BC7" s="10" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="BD7" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="BE7" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="BF7" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="BE7" s="10" t="s">
+      <c r="BG7" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="BF7" s="10" t="s">
-        <v>512</v>
-      </c>
-      <c r="BG7" s="10"/>
       <c r="BH7" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="BI7" s="10" t="s">
+      <c r="BI7" s="10"/>
+      <c r="BJ7" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="BJ7" s="10"/>
       <c r="BK7" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="BL7" s="10" t="s">
-        <v>495</v>
-      </c>
+      <c r="BL7" s="10"/>
       <c r="BM7" s="10" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
       <c r="BN7" s="10" t="s">
         <v>495</v>
@@ -5987,49 +6026,49 @@
         <v>495</v>
       </c>
       <c r="BR7" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="BS7" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="BT7" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="BS7" s="10" t="s">
+      <c r="BU7" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="BT7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="BU7" s="10" t="s">
-        <v>495</v>
-      </c>
       <c r="BV7" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="BW7" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="BX7" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="BW7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="BX7" s="10" t="s">
-        <v>495</v>
-      </c>
       <c r="BY7" s="10" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="BZ7" s="10" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="CA7" s="10" t="s">
         <v>510</v>
       </c>
       <c r="CB7" s="10" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="CC7" s="10" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="CD7" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="CE7" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="CF7" s="10" t="s">
         <v>511</v>
-      </c>
-      <c r="CE7" s="10" t="s">
-        <v>512</v>
-      </c>
-      <c r="CF7" s="10" t="s">
-        <v>512</v>
       </c>
       <c r="CG7" s="10" t="s">
         <v>512</v>
@@ -6041,10 +6080,10 @@
         <v>512</v>
       </c>
       <c r="CJ7" s="10" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
       <c r="CK7" s="10" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
       <c r="CL7" s="10" t="s">
         <v>495</v>
@@ -6059,49 +6098,49 @@
         <v>495</v>
       </c>
       <c r="CP7" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="CQ7" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="CR7" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="CQ7" s="10" t="s">
+      <c r="CS7" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="CR7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="CS7" s="10" t="s">
-        <v>495</v>
-      </c>
       <c r="CT7" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="CU7" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="CV7" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="CU7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="CV7" s="10" t="s">
-        <v>495</v>
-      </c>
       <c r="CW7" s="10" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="CX7" s="10" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="CY7" s="10" t="s">
         <v>510</v>
       </c>
       <c r="CZ7" s="10" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="DA7" s="10" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="DB7" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="DC7" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="DD7" s="10" t="s">
         <v>511</v>
-      </c>
-      <c r="DC7" s="10" t="s">
-        <v>512</v>
-      </c>
-      <c r="DD7" s="10" t="s">
-        <v>512</v>
       </c>
       <c r="DE7" s="10" t="s">
         <v>512</v>
@@ -6109,15 +6148,15 @@
       <c r="DF7" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="DG7" s="10"/>
+      <c r="DG7" s="10" t="s">
+        <v>512</v>
+      </c>
       <c r="DH7" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="DI7" s="10" t="s">
-        <v>495</v>
-      </c>
+      <c r="DI7" s="10"/>
       <c r="DJ7" s="10" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
       <c r="DK7" s="10" t="s">
         <v>495</v>
@@ -6126,30 +6165,30 @@
         <v>495</v>
       </c>
       <c r="DM7" s="10" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="DN7" s="10" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
       <c r="DO7" s="10" t="s">
         <v>510</v>
       </c>
       <c r="DP7" s="10" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="DQ7" s="10" t="s">
         <v>510</v>
       </c>
       <c r="DR7" s="10" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="DS7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="DT7" s="14" t="s">
-        <v>495</v>
-      </c>
-      <c r="DU7" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="DT7" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="DU7" s="10" t="s">
         <v>495</v>
       </c>
       <c r="DV7" s="14" t="s">
@@ -6158,25 +6197,25 @@
       <c r="DW7" s="14" t="s">
         <v>495</v>
       </c>
-      <c r="DX7" s="14"/>
-      <c r="DY7" s="14"/>
-      <c r="DZ7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="EA7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="EB7" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="EC7" s="9"/>
-      <c r="ED7" s="9"/>
-      <c r="EE7" s="13" t="s">
-        <v>495</v>
-      </c>
-      <c r="EF7" s="13" t="s">
-        <v>495</v>
-      </c>
+      <c r="DX7" s="14" t="s">
+        <v>495</v>
+      </c>
+      <c r="DY7" s="14" t="s">
+        <v>495</v>
+      </c>
+      <c r="DZ7" s="14"/>
+      <c r="EA7" s="14"/>
+      <c r="EB7" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="EC7" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="ED7" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="EE7" s="9"/>
+      <c r="EF7" s="9"/>
       <c r="EG7" s="13" t="s">
         <v>495</v>
       </c>
@@ -6189,55 +6228,55 @@
       <c r="EJ7" s="13" t="s">
         <v>495</v>
       </c>
-      <c r="EK7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="EL7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="EM7" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="EN7" s="10"/>
-      <c r="EO7" s="10"/>
+      <c r="EK7" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="EL7" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="EM7" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="EN7" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="EO7" s="9" t="s">
+        <v>495</v>
+      </c>
       <c r="EP7" s="10"/>
       <c r="EQ7" s="10"/>
-      <c r="ER7" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="ES7" s="9"/>
+      <c r="ER7" s="10"/>
+      <c r="ES7" s="10"/>
       <c r="ET7" s="9" t="s">
         <v>495</v>
       </c>
       <c r="EU7" s="9"/>
-      <c r="EV7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="EW7" s="10" t="s">
-        <v>495</v>
-      </c>
+      <c r="EV7" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="EW7" s="9"/>
       <c r="EX7" s="10" t="s">
         <v>495</v>
       </c>
       <c r="EY7" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="EZ7" s="9" t="s">
+      <c r="EZ7" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="FA7" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="FB7" s="9" t="s">
         <v>514</v>
       </c>
-      <c r="FA7" s="14" t="s">
+      <c r="FC7" s="14" t="s">
         <v>515</v>
       </c>
-      <c r="FB7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="FC7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="FD7" s="13" t="s">
-        <v>495</v>
-      </c>
-      <c r="FE7" s="13" t="s">
+      <c r="FD7" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="FE7" s="10" t="s">
         <v>495</v>
       </c>
       <c r="FF7" s="13" t="s">
@@ -6252,18 +6291,18 @@
       <c r="FI7" s="13" t="s">
         <v>495</v>
       </c>
-      <c r="FJ7" s="13"/>
-      <c r="FK7" s="14"/>
-      <c r="FL7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="FM7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="FN7" s="13" t="s">
-        <v>495</v>
-      </c>
-      <c r="FO7" s="13" t="s">
+      <c r="FJ7" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="FK7" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="FL7" s="13"/>
+      <c r="FM7" s="14"/>
+      <c r="FN7" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="FO7" s="10" t="s">
         <v>495</v>
       </c>
       <c r="FP7" s="13" t="s">
@@ -6278,20 +6317,20 @@
       <c r="FS7" s="13" t="s">
         <v>495</v>
       </c>
-      <c r="FT7" s="13"/>
-      <c r="FU7" s="13"/>
+      <c r="FT7" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="FU7" s="13" t="s">
+        <v>495</v>
+      </c>
       <c r="FV7" s="13"/>
       <c r="FW7" s="13"/>
-      <c r="FX7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="FY7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="FZ7" s="13" t="s">
-        <v>495</v>
-      </c>
-      <c r="GA7" s="13" t="s">
+      <c r="FX7" s="13"/>
+      <c r="FY7" s="13"/>
+      <c r="FZ7" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="GA7" s="10" t="s">
         <v>495</v>
       </c>
       <c r="GB7" s="13" t="s">
@@ -6303,39 +6342,43 @@
       <c r="GD7" s="13" t="s">
         <v>495</v>
       </c>
-      <c r="GE7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="GF7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="GG7" s="10"/>
-      <c r="GH7" s="10"/>
+      <c r="GE7" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="GF7" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="GG7" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="GH7" s="10" t="s">
+        <v>495</v>
+      </c>
       <c r="GI7" s="10"/>
-      <c r="GJ7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="GK7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="GL7" s="10"/>
-      <c r="GM7" s="10"/>
+      <c r="GJ7" s="10"/>
+      <c r="GK7" s="10"/>
+      <c r="GL7" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="GM7" s="10" t="s">
+        <v>495</v>
+      </c>
       <c r="GN7" s="10"/>
-      <c r="GO7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="GP7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="GQ7" s="10"/>
-      <c r="GR7" s="10"/>
+      <c r="GO7" s="10"/>
+      <c r="GP7" s="10"/>
+      <c r="GQ7" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="GR7" s="10" t="s">
+        <v>495</v>
+      </c>
       <c r="GS7" s="10"/>
       <c r="GT7" s="10"/>
-      <c r="GU7" s="14" t="s">
+      <c r="GU7" s="10"/>
+      <c r="GV7" s="10"/>
+      <c r="GW7" s="14" t="s">
         <v>516</v>
       </c>
-      <c r="GV7" s="10"/>
-      <c r="GW7" s="10"/>
       <c r="GX7" s="10"/>
       <c r="GY7" s="10"/>
       <c r="GZ7" s="10"/>
@@ -6343,56 +6386,52 @@
       <c r="HB7" s="10"/>
       <c r="HC7" s="10"/>
       <c r="HD7" s="10"/>
-      <c r="HE7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="HF7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="HG7" s="10"/>
-      <c r="HH7" s="10"/>
+      <c r="HE7" s="10"/>
+      <c r="HF7" s="10"/>
+      <c r="HG7" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="HH7" s="10" t="s">
+        <v>495</v>
+      </c>
       <c r="HI7" s="10"/>
       <c r="HJ7" s="10"/>
-      <c r="HK7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="HL7" s="10" t="s">
-        <v>495</v>
-      </c>
+      <c r="HK7" s="10"/>
+      <c r="HL7" s="10"/>
       <c r="HM7" s="10" t="s">
         <v>495</v>
       </c>
       <c r="HN7" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="HO7" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="HP7" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="HQ7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="HR7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="HS7" s="9" t="s">
+      <c r="HO7" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="HP7" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="HQ7" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="HR7" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="HS7" s="10" t="s">
         <v>495</v>
       </c>
       <c r="HT7" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="HU7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="HV7" s="9" t="s">
+      <c r="HU7" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="HV7" s="10" t="s">
         <v>495</v>
       </c>
       <c r="HW7" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="HX7" s="10" t="s">
+      <c r="HX7" s="9" t="s">
         <v>495</v>
       </c>
       <c r="HY7" s="10" t="s">
@@ -6401,8 +6440,14 @@
       <c r="HZ7" s="10" t="s">
         <v>495</v>
       </c>
+      <c r="IA7" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="IB7" s="10" t="s">
+        <v>495</v>
+      </c>
     </row>
-    <row r="8" spans="1:234" s="7" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:236" s="7" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>517</v>
       </c>
@@ -6517,14 +6562,14 @@
       <c r="AL8" s="10" t="s">
         <v>526</v>
       </c>
-      <c r="AM8" s="9" t="s">
+      <c r="AM8" s="10" t="s">
         <v>526</v>
       </c>
       <c r="AN8" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="AO8" s="10" t="s">
-        <v>528</v>
+        <v>526</v>
+      </c>
+      <c r="AO8" s="9" t="s">
+        <v>526</v>
       </c>
       <c r="AP8" s="10" t="s">
         <v>528</v>
@@ -6533,66 +6578,66 @@
         <v>528</v>
       </c>
       <c r="AR8" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="AS8" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="AT8" s="10" t="s">
         <v>530</v>
       </c>
-      <c r="AS8" s="10" t="s">
+      <c r="AU8" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="AT8" s="10" t="s">
+      <c r="AV8" s="10" t="s">
         <v>528</v>
-      </c>
-      <c r="AU8" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="AV8" s="10" t="s">
-        <v>530</v>
       </c>
       <c r="AW8" s="10" t="s">
         <v>528</v>
       </c>
       <c r="AX8" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="AY8" s="10" t="s">
         <v>528</v>
       </c>
-      <c r="AY8" s="10" t="s">
-        <v>530</v>
-      </c>
       <c r="AZ8" s="10" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="BA8" s="10" t="s">
         <v>530</v>
       </c>
       <c r="BB8" s="10" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="BC8" s="10" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="BD8" s="10" t="s">
         <v>528</v>
       </c>
       <c r="BE8" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="BF8" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="BG8" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="BF8" s="10" t="s">
-        <v>532</v>
-      </c>
-      <c r="BG8" s="10"/>
       <c r="BH8" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="BI8" s="10" t="s">
+      <c r="BI8" s="10"/>
+      <c r="BJ8" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="BJ8" s="10"/>
       <c r="BK8" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="BL8" s="10" t="s">
-        <v>528</v>
-      </c>
+      <c r="BL8" s="10"/>
       <c r="BM8" s="10" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="BN8" s="10" t="s">
         <v>528</v>
@@ -6607,49 +6652,49 @@
         <v>528</v>
       </c>
       <c r="BR8" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="BS8" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="BT8" s="10" t="s">
         <v>530</v>
       </c>
-      <c r="BS8" s="10" t="s">
+      <c r="BU8" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="BT8" s="10" t="s">
+      <c r="BV8" s="10" t="s">
         <v>528</v>
-      </c>
-      <c r="BU8" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="BV8" s="10" t="s">
-        <v>530</v>
       </c>
       <c r="BW8" s="10" t="s">
         <v>528</v>
       </c>
       <c r="BX8" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="BY8" s="10" t="s">
         <v>528</v>
       </c>
-      <c r="BY8" s="10" t="s">
-        <v>530</v>
-      </c>
       <c r="BZ8" s="10" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="CA8" s="10" t="s">
         <v>530</v>
       </c>
       <c r="CB8" s="10" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="CC8" s="10" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="CD8" s="10" t="s">
         <v>528</v>
       </c>
       <c r="CE8" s="10" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="CF8" s="10" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="CG8" s="10" t="s">
         <v>532</v>
@@ -6661,10 +6706,10 @@
         <v>532</v>
       </c>
       <c r="CJ8" s="10" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="CK8" s="10" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="CL8" s="10" t="s">
         <v>528</v>
@@ -6679,49 +6724,49 @@
         <v>528</v>
       </c>
       <c r="CP8" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="CQ8" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="CR8" s="10" t="s">
         <v>530</v>
       </c>
-      <c r="CQ8" s="10" t="s">
+      <c r="CS8" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="CR8" s="10" t="s">
+      <c r="CT8" s="10" t="s">
         <v>528</v>
-      </c>
-      <c r="CS8" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="CT8" s="10" t="s">
-        <v>530</v>
       </c>
       <c r="CU8" s="10" t="s">
         <v>528</v>
       </c>
       <c r="CV8" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="CW8" s="10" t="s">
         <v>528</v>
       </c>
-      <c r="CW8" s="10" t="s">
-        <v>530</v>
-      </c>
       <c r="CX8" s="10" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="CY8" s="10" t="s">
         <v>530</v>
       </c>
       <c r="CZ8" s="10" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="DA8" s="10" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="DB8" s="10" t="s">
         <v>528</v>
       </c>
       <c r="DC8" s="10" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="DD8" s="10" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="DE8" s="10" t="s">
         <v>532</v>
@@ -6729,15 +6774,15 @@
       <c r="DF8" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="DG8" s="10"/>
+      <c r="DG8" s="10" t="s">
+        <v>532</v>
+      </c>
       <c r="DH8" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="DI8" s="10" t="s">
-        <v>528</v>
-      </c>
+      <c r="DI8" s="10"/>
       <c r="DJ8" s="10" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="DK8" s="10" t="s">
         <v>528</v>
@@ -6746,57 +6791,57 @@
         <v>528</v>
       </c>
       <c r="DM8" s="10" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="DN8" s="10" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="DO8" s="10" t="s">
         <v>530</v>
       </c>
       <c r="DP8" s="10" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="DQ8" s="10" t="s">
         <v>530</v>
       </c>
       <c r="DR8" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="DS8" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="DT8" s="10" t="s">
         <v>528</v>
       </c>
-      <c r="DS8" s="10" t="s">
+      <c r="DU8" s="10" t="s">
         <v>528</v>
       </c>
-      <c r="DT8" s="14" t="s">
+      <c r="DV8" s="14" t="s">
         <v>534</v>
-      </c>
-      <c r="DU8" s="14" t="s">
-        <v>535</v>
-      </c>
-      <c r="DV8" s="14" t="s">
-        <v>535</v>
       </c>
       <c r="DW8" s="14" t="s">
         <v>535</v>
       </c>
-      <c r="DX8" s="14"/>
-      <c r="DY8" s="14"/>
-      <c r="DZ8" s="10" t="s">
+      <c r="DX8" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="DY8" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="DZ8" s="14"/>
+      <c r="EA8" s="14"/>
+      <c r="EB8" s="10" t="s">
         <v>528</v>
       </c>
-      <c r="EA8" s="10" t="s">
+      <c r="EC8" s="10" t="s">
         <v>528</v>
       </c>
-      <c r="EB8" s="9" t="s">
+      <c r="ED8" s="9" t="s">
         <v>535</v>
       </c>
-      <c r="EC8" s="9"/>
-      <c r="ED8" s="9"/>
-      <c r="EE8" s="13" t="s">
-        <v>535</v>
-      </c>
-      <c r="EF8" s="13" t="s">
-        <v>535</v>
-      </c>
+      <c r="EE8" s="9"/>
+      <c r="EF8" s="9"/>
       <c r="EG8" s="13" t="s">
         <v>535</v>
       </c>
@@ -6809,56 +6854,56 @@
       <c r="EJ8" s="13" t="s">
         <v>535</v>
       </c>
-      <c r="EK8" s="10" t="s">
+      <c r="EK8" s="13" t="s">
+        <v>535</v>
+      </c>
+      <c r="EL8" s="13" t="s">
+        <v>535</v>
+      </c>
+      <c r="EM8" s="10" t="s">
         <v>528</v>
       </c>
-      <c r="EL8" s="10" t="s">
+      <c r="EN8" s="10" t="s">
         <v>528</v>
       </c>
-      <c r="EM8" s="9" t="s">
+      <c r="EO8" s="9" t="s">
         <v>535</v>
       </c>
-      <c r="EN8" s="10"/>
-      <c r="EO8" s="10"/>
       <c r="EP8" s="10"/>
       <c r="EQ8" s="10"/>
-      <c r="ER8" s="9" t="s">
-        <v>535</v>
-      </c>
-      <c r="ES8" s="9"/>
+      <c r="ER8" s="10"/>
+      <c r="ES8" s="10"/>
       <c r="ET8" s="9" t="s">
         <v>535</v>
       </c>
       <c r="EU8" s="9"/>
-      <c r="EV8" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="EW8" s="10" t="s">
-        <v>528</v>
-      </c>
+      <c r="EV8" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="EW8" s="9"/>
       <c r="EX8" s="10" t="s">
         <v>528</v>
       </c>
       <c r="EY8" s="10" t="s">
         <v>528</v>
       </c>
-      <c r="EZ8" s="9" t="s">
+      <c r="EZ8" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="FA8" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="FB8" s="9" t="s">
         <v>536</v>
       </c>
-      <c r="FA8" s="13" t="s">
+      <c r="FC8" s="13" t="s">
         <v>536</v>
       </c>
-      <c r="FB8" s="10" t="s">
+      <c r="FD8" s="10" t="s">
         <v>528</v>
       </c>
-      <c r="FC8" s="10" t="s">
+      <c r="FE8" s="10" t="s">
         <v>528</v>
-      </c>
-      <c r="FD8" s="13" t="s">
-        <v>537</v>
-      </c>
-      <c r="FE8" s="13" t="s">
-        <v>537</v>
       </c>
       <c r="FF8" s="13" t="s">
         <v>537</v>
@@ -6872,14 +6917,14 @@
       <c r="FI8" s="13" t="s">
         <v>537</v>
       </c>
-      <c r="FJ8" s="13"/>
-      <c r="FK8" s="13"/>
-      <c r="FL8" s="13" t="s">
+      <c r="FJ8" s="13" t="s">
         <v>537</v>
       </c>
-      <c r="FM8" s="13" t="s">
+      <c r="FK8" s="13" t="s">
         <v>537</v>
       </c>
+      <c r="FL8" s="13"/>
+      <c r="FM8" s="13"/>
       <c r="FN8" s="13" t="s">
         <v>537</v>
       </c>
@@ -6901,15 +6946,15 @@
       <c r="FT8" s="13" t="s">
         <v>537</v>
       </c>
-      <c r="FU8" s="13"/>
-      <c r="FV8" s="13"/>
+      <c r="FU8" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="FV8" s="13" t="s">
+        <v>537</v>
+      </c>
       <c r="FW8" s="13"/>
-      <c r="FX8" s="13" t="s">
-        <v>537</v>
-      </c>
-      <c r="FY8" s="13" t="s">
-        <v>537</v>
-      </c>
+      <c r="FX8" s="13"/>
+      <c r="FY8" s="13"/>
       <c r="FZ8" s="13" t="s">
         <v>537</v>
       </c>
@@ -6932,10 +6977,10 @@
         <v>537</v>
       </c>
       <c r="GG8" s="13" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="GH8" s="13" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="GI8" s="13" t="s">
         <v>538</v>
@@ -6952,15 +6997,19 @@
       <c r="GM8" s="13" t="s">
         <v>538</v>
       </c>
-      <c r="GN8" s="13"/>
+      <c r="GN8" s="13" t="s">
+        <v>538</v>
+      </c>
       <c r="GO8" s="13" t="s">
         <v>538</v>
       </c>
-      <c r="GP8" s="13" t="s">
+      <c r="GP8" s="13"/>
+      <c r="GQ8" s="13" t="s">
         <v>538</v>
       </c>
-      <c r="GQ8" s="13"/>
-      <c r="GR8" s="13"/>
+      <c r="GR8" s="13" t="s">
+        <v>538</v>
+      </c>
       <c r="GS8" s="13"/>
       <c r="GT8" s="13"/>
       <c r="GU8" s="13"/>
@@ -6973,33 +7022,29 @@
       <c r="HB8" s="13"/>
       <c r="HC8" s="13"/>
       <c r="HD8" s="13"/>
-      <c r="HE8" s="13" t="s">
+      <c r="HE8" s="13"/>
+      <c r="HF8" s="13"/>
+      <c r="HG8" s="13" t="s">
         <v>538</v>
       </c>
-      <c r="HF8" s="13" t="s">
+      <c r="HH8" s="13" t="s">
         <v>538</v>
       </c>
-      <c r="HG8" s="13"/>
-      <c r="HH8" s="13"/>
       <c r="HI8" s="13"/>
       <c r="HJ8" s="13"/>
-      <c r="HK8" s="13" t="s">
-        <v>538</v>
-      </c>
-      <c r="HL8" s="13" t="s">
-        <v>538</v>
-      </c>
+      <c r="HK8" s="13"/>
+      <c r="HL8" s="13"/>
       <c r="HM8" s="13" t="s">
         <v>538</v>
       </c>
       <c r="HN8" s="13" t="s">
         <v>538</v>
       </c>
-      <c r="HO8" s="9" t="s">
-        <v>539</v>
-      </c>
-      <c r="HP8" s="9" t="s">
-        <v>539</v>
+      <c r="HO8" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="HP8" s="13" t="s">
+        <v>538</v>
       </c>
       <c r="HQ8" s="9" t="s">
         <v>539</v>
@@ -7029,6 +7074,12 @@
         <v>539</v>
       </c>
       <c r="HZ8" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="IA8" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="IB8" s="9" t="s">
         <v>539</v>
       </c>
     </row>
@@ -7041,21 +7092,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="4654e9f1-a236-4d55-b6c2-932c37e5d109">
-      <UserInfo>
-        <DisplayName>Brent Rine</DisplayName>
-        <AccountId>23</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c267871d-e92d-4bec-a268-edb541a91654">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="4654e9f1-a236-4d55-b6c2-932c37e5d109" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7296,21 +7338,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="4654e9f1-a236-4d55-b6c2-932c37e5d109">
+      <UserInfo>
+        <DisplayName>Brent Rine</DisplayName>
+        <AccountId>23</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c267871d-e92d-4bec-a268-edb541a91654">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="4654e9f1-a236-4d55-b6c2-932c37e5d109" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AA33094-6942-48DE-9F4F-C923660B2492}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A2AA17B-CA28-47AB-9F1B-CF2D00CC15D4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4654e9f1-a236-4d55-b6c2-932c37e5d109"/>
-    <ds:schemaRef ds:uri="c267871d-e92d-4bec-a268-edb541a91654"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7335,9 +7383,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A2AA17B-CA28-47AB-9F1B-CF2D00CC15D4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AA33094-6942-48DE-9F4F-C923660B2492}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4654e9f1-a236-4d55-b6c2-932c37e5d109"/>
+    <ds:schemaRef ds:uri="c267871d-e92d-4bec-a268-edb541a91654"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Testdata/Non_Oncology/Templates/ManagePopulations/EP_Categorical/Categorical-Master Template_InvalidColumn_QB_SB#5.xlsx
+++ b/Testdata/Non_Oncology/Templates/ManagePopulations/EP_Categorical/Categorical-Master Template_InvalidColumn_QB_SB#5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\Templates\ManagePopulations\EP_Categorical\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D65C78-BF8B-4448-894D-1D46118C06B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47115BCA-502F-4DF8-A72D-070A84BBEA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -937,12 +937,6 @@
   </si>
   <si>
     <t>Inclusion &amp; Exclusion Criteria</t>
-  </si>
-  <si>
-    <t>Sub-population</t>
-  </si>
-  <si>
-    <t>Prior Therapy Group</t>
   </si>
   <si>
     <t>Number of Arms</t>
@@ -1779,6 +1773,12 @@
   </si>
   <si>
     <t>Extraction_FollowUpPeriodUnit: string</t>
+  </si>
+  <si>
+    <t>Population filter 1</t>
+  </si>
+  <si>
+    <t>Population filter 2</t>
   </si>
 </sst>
 </file>
@@ -2775,9 +2775,9 @@
   </sheetPr>
   <dimension ref="A1:IB8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AL1" sqref="AL1:AO8"/>
+      <selection pane="bottomLeft" activeCell="P5" sqref="P5:Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -3822,10 +3822,10 @@
         <v>94</v>
       </c>
       <c r="AN4" s="21" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="AO4" s="21" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AP4" s="43" t="s">
         <v>95</v>
@@ -3885,7 +3885,7 @@
         <v>113</v>
       </c>
       <c r="BI4" s="98" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="BJ4" s="43" t="s">
         <v>114</v>
@@ -3894,7 +3894,7 @@
         <v>115</v>
       </c>
       <c r="BL4" s="98" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="BM4" s="43" t="s">
         <v>116</v>
@@ -4041,7 +4041,7 @@
         <v>163</v>
       </c>
       <c r="DI4" s="97" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="DJ4" s="32" t="s">
         <v>164</v>
@@ -4460,1924 +4460,1924 @@
         <v>299</v>
       </c>
       <c r="P5" s="94" t="s">
+        <v>546</v>
+      </c>
+      <c r="Q5" s="94" t="s">
+        <v>547</v>
+      </c>
+      <c r="R5" s="94" t="s">
         <v>300</v>
       </c>
-      <c r="Q5" s="94" t="s">
+      <c r="S5" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="R5" s="94" t="s">
+      <c r="T5" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="U5" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="V5" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="T5" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="U5" s="5" t="s">
+      <c r="W5" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="V5" s="5" t="s">
+      <c r="X5" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y5" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="W5" s="6" t="s">
+      <c r="Z5" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="X5" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="Y5" s="5" t="s">
+      <c r="AA5" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="Z5" s="5" t="s">
+      <c r="AB5" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="AA5" s="5" t="s">
+      <c r="AC5" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="AB5" s="5" t="s">
+      <c r="AD5" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="AC5" s="5" t="s">
+      <c r="AE5" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="AD5" s="5" t="s">
+      <c r="AF5" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="AE5" s="5" t="s">
+      <c r="AG5" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="AF5" s="5" t="s">
+      <c r="AH5" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="AG5" s="5" t="s">
+      <c r="AI5" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="AH5" s="5" t="s">
+      <c r="AJ5" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="AK5" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="AI5" s="6" t="s">
+      <c r="AL5" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="AM5" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="AN5" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="AJ5" s="6" t="s">
+      <c r="AO5" s="6" t="s">
         <v>317</v>
-      </c>
-      <c r="AK5" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="AL5" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="AM5" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="AN5" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="AO5" s="6" t="s">
-        <v>319</v>
       </c>
       <c r="AP5" s="5" t="s">
         <v>44</v>
       </c>
       <c r="AQ5" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="AR5" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="AS5" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="AT5" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="AR5" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="AS5" s="5" t="s">
+      <c r="AU5" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="AT5" s="5" t="s">
+      <c r="AV5" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="AU5" s="5" t="s">
+      <c r="AW5" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="AX5" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="AV5" s="6" t="s">
+      <c r="AY5" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="AW5" s="6" t="s">
+      <c r="AZ5" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="AX5" s="5" t="s">
+      <c r="BA5" s="94" t="s">
         <v>325</v>
       </c>
-      <c r="AY5" s="6" t="s">
+      <c r="BB5" s="94" t="s">
         <v>326</v>
       </c>
-      <c r="AZ5" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="BA5" s="94" t="s">
+      <c r="BC5" s="94" t="s">
         <v>327</v>
       </c>
-      <c r="BB5" s="94" t="s">
+      <c r="BD5" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="BC5" s="94" t="s">
+      <c r="BE5" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="BF5" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="BD5" s="6" t="s">
+      <c r="BG5" s="94" t="s">
         <v>330</v>
       </c>
-      <c r="BE5" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="BF5" s="5" t="s">
+      <c r="BH5" s="5" t="s">
         <v>331</v>
-      </c>
-      <c r="BG5" s="94" t="s">
-        <v>332</v>
-      </c>
-      <c r="BH5" s="5" t="s">
-        <v>333</v>
       </c>
       <c r="BI5" s="5"/>
       <c r="BJ5" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="BK5" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="BL5" s="5"/>
       <c r="BM5" s="94" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="BN5" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="BO5" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="BP5" s="5" t="s">
         <v>44</v>
       </c>
       <c r="BQ5" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="BR5" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="BS5" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="BT5" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="BR5" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="BS5" s="5" t="s">
+      <c r="BU5" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="BT5" s="5" t="s">
+      <c r="BV5" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="BU5" s="5" t="s">
+      <c r="BW5" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="BX5" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="BV5" s="6" t="s">
+      <c r="BY5" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="BW5" s="6" t="s">
+      <c r="BZ5" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="BX5" s="5" t="s">
+      <c r="CA5" s="94" t="s">
         <v>325</v>
       </c>
-      <c r="BY5" s="6" t="s">
+      <c r="CB5" s="94" t="s">
         <v>326</v>
       </c>
-      <c r="BZ5" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="CA5" s="94" t="s">
+      <c r="CC5" s="94" t="s">
         <v>327</v>
       </c>
-      <c r="CB5" s="94" t="s">
+      <c r="CD5" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="CC5" s="94" t="s">
+      <c r="CE5" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="CF5" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="CD5" s="6" t="s">
+      <c r="CG5" s="94" t="s">
         <v>330</v>
       </c>
-      <c r="CE5" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="CF5" s="5" t="s">
+      <c r="CH5" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="CG5" s="94" t="s">
+      <c r="CI5" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="CH5" s="5" t="s">
+      <c r="CJ5" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="CI5" s="5" t="s">
+      <c r="CK5" s="94" t="s">
         <v>334</v>
       </c>
-      <c r="CJ5" s="5" t="s">
+      <c r="CL5" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="CK5" s="94" t="s">
-        <v>336</v>
-      </c>
-      <c r="CL5" s="6" t="s">
-        <v>337</v>
-      </c>
       <c r="CM5" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="CN5" s="5" t="s">
         <v>44</v>
       </c>
       <c r="CO5" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="CP5" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="CQ5" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="CR5" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="CP5" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="CQ5" s="5" t="s">
+      <c r="CS5" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="CR5" s="5" t="s">
+      <c r="CT5" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="CS5" s="5" t="s">
+      <c r="CU5" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="CV5" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="CT5" s="6" t="s">
+      <c r="CW5" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="CU5" s="6" t="s">
+      <c r="CX5" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="CV5" s="5" t="s">
+      <c r="CY5" s="94" t="s">
         <v>325</v>
       </c>
-      <c r="CW5" s="6" t="s">
+      <c r="CZ5" s="94" t="s">
         <v>326</v>
       </c>
-      <c r="CX5" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="CY5" s="94" t="s">
+      <c r="DA5" s="94" t="s">
         <v>327</v>
       </c>
-      <c r="CZ5" s="94" t="s">
+      <c r="DB5" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="DA5" s="94" t="s">
+      <c r="DC5" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="DD5" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="DB5" s="6" t="s">
+      <c r="DE5" s="94" t="s">
         <v>330</v>
       </c>
-      <c r="DC5" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="DD5" s="5" t="s">
+      <c r="DF5" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="DE5" s="94" t="s">
+      <c r="DG5" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="DF5" s="5" t="s">
+      <c r="DH5" s="5" t="s">
         <v>333</v>
-      </c>
-      <c r="DG5" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="DH5" s="5" t="s">
-        <v>335</v>
       </c>
       <c r="DI5" s="5"/>
       <c r="DJ5" s="94" t="s">
+        <v>334</v>
+      </c>
+      <c r="DK5" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="DL5" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="DM5" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="DK5" s="6" t="s">
+      <c r="DN5" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="DO5" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="DL5" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="DM5" s="6" t="s">
+      <c r="DP5" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="DN5" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="DO5" s="5" t="s">
+      <c r="DQ5" s="94" t="s">
         <v>339</v>
       </c>
-      <c r="DP5" s="5" t="s">
+      <c r="DR5" s="94" t="s">
         <v>340</v>
       </c>
-      <c r="DQ5" s="94" t="s">
+      <c r="DS5" s="94" t="s">
         <v>341</v>
       </c>
-      <c r="DR5" s="94" t="s">
+      <c r="DT5" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="DS5" s="94" t="s">
+      <c r="DU5" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="DV5" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="DT5" s="6" t="s">
+      <c r="DW5" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="DU5" s="6" t="s">
+      <c r="DX5" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="DY5" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="DZ5" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="EA5" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="EB5" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="EC5" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="ED5" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="EE5" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="EF5" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="EG5" s="94" t="s">
+        <v>353</v>
+      </c>
+      <c r="EH5" s="94" t="s">
+        <v>354</v>
+      </c>
+      <c r="EI5" s="94" t="s">
+        <v>355</v>
+      </c>
+      <c r="EJ5" s="94" t="s">
+        <v>356</v>
+      </c>
+      <c r="EK5" s="94" t="s">
+        <v>357</v>
+      </c>
+      <c r="EL5" s="94" t="s">
+        <v>358</v>
+      </c>
+      <c r="EM5" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="EN5" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="EO5" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="EP5" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="EQ5" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="ER5" s="94" t="s">
+        <v>363</v>
+      </c>
+      <c r="ES5" s="94" t="s">
+        <v>364</v>
+      </c>
+      <c r="ET5" s="94" t="s">
+        <v>365</v>
+      </c>
+      <c r="EU5" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="EV5" s="94" t="s">
+        <v>367</v>
+      </c>
+      <c r="EW5" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="EX5" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="EY5" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="EZ5" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="FA5" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="FB5" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="FC5" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="FD5" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="FE5" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="FF5" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="FG5" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="FH5" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="FI5" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="FJ5" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="FK5" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="FL5" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="FM5" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="FN5" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="FO5" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="FP5" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="FQ5" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="FR5" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="FS5" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="FT5" s="94" t="s">
+        <v>365</v>
+      </c>
+      <c r="FU5" s="94" t="s">
+        <v>367</v>
+      </c>
+      <c r="FV5" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="FW5" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="FX5" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="FY5" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="FZ5" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="GA5" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="GB5" s="94" t="s">
+        <v>389</v>
+      </c>
+      <c r="GC5" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="GD5" s="94" t="s">
+        <v>391</v>
+      </c>
+      <c r="GE5" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="GF5" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="GG5" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="GH5" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="GI5" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="GJ5" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="DV5" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="DW5" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="DX5" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="DY5" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="DZ5" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="EA5" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="EB5" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="EC5" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="ED5" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="EE5" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="EF5" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="EG5" s="94" t="s">
-        <v>355</v>
-      </c>
-      <c r="EH5" s="94" t="s">
-        <v>356</v>
-      </c>
-      <c r="EI5" s="94" t="s">
-        <v>357</v>
-      </c>
-      <c r="EJ5" s="94" t="s">
-        <v>358</v>
-      </c>
-      <c r="EK5" s="94" t="s">
-        <v>359</v>
-      </c>
-      <c r="EL5" s="94" t="s">
-        <v>360</v>
-      </c>
-      <c r="EM5" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="EN5" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="EO5" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="EP5" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="EQ5" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="ER5" s="94" t="s">
-        <v>365</v>
-      </c>
-      <c r="ES5" s="94" t="s">
-        <v>366</v>
-      </c>
-      <c r="ET5" s="94" t="s">
-        <v>367</v>
-      </c>
-      <c r="EU5" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="EV5" s="94" t="s">
-        <v>369</v>
-      </c>
-      <c r="EW5" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="EX5" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="EY5" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="EZ5" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="FA5" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="FB5" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="FC5" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="FD5" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="FE5" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="FF5" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="FG5" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="FH5" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="FI5" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="FJ5" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="FK5" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="FL5" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="FM5" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="FN5" s="6" t="s">
+      <c r="GK5" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="GL5" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="GM5" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="GN5" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="FO5" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="FP5" s="5" t="s">
+      <c r="GO5" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="FQ5" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="FR5" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="FS5" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="FT5" s="94" t="s">
-        <v>367</v>
-      </c>
-      <c r="FU5" s="94" t="s">
-        <v>369</v>
-      </c>
-      <c r="FV5" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="FW5" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="FX5" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="FY5" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="FZ5" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="GA5" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="GB5" s="94" t="s">
-        <v>391</v>
-      </c>
-      <c r="GC5" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="GD5" s="94" t="s">
-        <v>393</v>
-      </c>
-      <c r="GE5" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="GF5" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="GG5" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="GH5" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="GI5" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="GJ5" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="GK5" s="5" t="s">
+      <c r="GP5" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="GL5" s="6" t="s">
+      <c r="GQ5" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="GM5" s="6" t="s">
+      <c r="GR5" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="GN5" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="GO5" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="GP5" s="5" t="s">
+      <c r="GS5" s="94" t="s">
         <v>400</v>
       </c>
-      <c r="GQ5" s="6" t="s">
+      <c r="GT5" s="94" t="s">
         <v>401</v>
       </c>
-      <c r="GR5" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="GS5" s="94" t="s">
+      <c r="GU5" s="94" t="s">
         <v>402</v>
       </c>
-      <c r="GT5" s="94" t="s">
+      <c r="GV5" s="94" t="s">
         <v>403</v>
       </c>
-      <c r="GU5" s="94" t="s">
+      <c r="GW5" s="94" t="s">
         <v>404</v>
       </c>
-      <c r="GV5" s="94" t="s">
+      <c r="GX5" s="94" t="s">
         <v>405</v>
       </c>
-      <c r="GW5" s="94" t="s">
+      <c r="GY5" s="94" t="s">
         <v>406</v>
       </c>
-      <c r="GX5" s="94" t="s">
+      <c r="GZ5" s="94" t="s">
         <v>407</v>
       </c>
-      <c r="GY5" s="94" t="s">
+      <c r="HA5" s="94" t="s">
         <v>408</v>
       </c>
-      <c r="GZ5" s="94" t="s">
+      <c r="HB5" s="94" t="s">
         <v>409</v>
       </c>
-      <c r="HA5" s="94" t="s">
+      <c r="HC5" s="94" t="s">
         <v>410</v>
       </c>
-      <c r="HB5" s="94" t="s">
+      <c r="HD5" s="94" t="s">
         <v>411</v>
       </c>
-      <c r="HC5" s="94" t="s">
+      <c r="HE5" s="94" t="s">
         <v>412</v>
       </c>
-      <c r="HD5" s="94" t="s">
+      <c r="HF5" s="94" t="s">
         <v>413</v>
       </c>
-      <c r="HE5" s="94" t="s">
+      <c r="HG5" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="HF5" s="94" t="s">
+      <c r="HH5" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="HI5" s="94" t="s">
         <v>415</v>
       </c>
-      <c r="HG5" s="6" t="s">
+      <c r="HJ5" s="94" t="s">
         <v>416</v>
       </c>
-      <c r="HH5" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="HI5" s="94" t="s">
+      <c r="HK5" s="94" t="s">
         <v>417</v>
       </c>
-      <c r="HJ5" s="94" t="s">
+      <c r="HL5" s="94" t="s">
         <v>418</v>
       </c>
-      <c r="HK5" s="94" t="s">
+      <c r="HM5" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="HL5" s="94" t="s">
+      <c r="HN5" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="HO5" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="HM5" s="6" t="s">
+      <c r="HP5" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="HQ5" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="HN5" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="HO5" s="6" t="s">
+      <c r="HR5" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="HP5" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="HQ5" s="5" t="s">
+      <c r="HS5" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="HR5" s="5" t="s">
+      <c r="HT5" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="HU5" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="HS5" s="6" t="s">
+      <c r="HV5" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="HT5" s="6" t="s">
+      <c r="HW5" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="HU5" s="5" t="s">
+      <c r="HX5" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="HV5" s="6" t="s">
+      <c r="HY5" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="HW5" s="6" t="s">
+      <c r="HZ5" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="HX5" s="5" t="s">
+      <c r="IA5" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="HY5" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="HZ5" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="IA5" s="6" t="s">
-        <v>430</v>
-      </c>
       <c r="IB5" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:236" s="7" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="G6" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="H6" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="I6" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="J6" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="K6" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="L6" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="M6" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="N6" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="O6" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="P6" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="Q6" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="R6" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="S6" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="T6" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="U6" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="T6" s="9" t="s">
+      <c r="V6" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="U6" s="9" t="s">
+      <c r="W6" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="X6" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y6" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="V6" s="9" t="s">
+      <c r="Z6" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="W6" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="X6" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="Y6" s="9" t="s">
+      <c r="AA6" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="Z6" s="9" t="s">
+      <c r="AB6" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="AA6" s="9" t="s">
+      <c r="AC6" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="AB6" s="9" t="s">
+      <c r="AD6" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="AC6" s="9" t="s">
+      <c r="AE6" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="AD6" s="9" t="s">
+      <c r="AF6" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="AE6" s="9" t="s">
+      <c r="AG6" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="AF6" s="9" t="s">
+      <c r="AH6" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="AG6" s="9" t="s">
+      <c r="AI6" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="AJ6" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="AK6" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="AH6" s="9" t="s">
+      <c r="AL6" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="AM6" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="AN6" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="AO6" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="AP6" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="AI6" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="AJ6" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="AK6" s="9" t="s">
+      <c r="AQ6" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="AL6" s="9" t="s">
-        <v>546</v>
-      </c>
-      <c r="AM6" s="9" t="s">
-        <v>547</v>
-      </c>
-      <c r="AN6" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="AO6" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="AP6" s="9" t="s">
+      <c r="AR6" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="AS6" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="AQ6" s="9" t="s">
+      <c r="AT6" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="AR6" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="AS6" s="9" t="s">
+      <c r="AU6" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="AT6" s="9" t="s">
+      <c r="AV6" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="AW6" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="AX6" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="AU6" s="9" t="s">
+      <c r="AY6" s="9" t="s">
         <v>468</v>
       </c>
-      <c r="AV6" s="9" t="s">
-        <v>465</v>
-      </c>
-      <c r="AW6" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="AX6" s="9" t="s">
+      <c r="AZ6" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="BA6" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="AY6" s="9" t="s">
+      <c r="BB6" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="AZ6" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="BA6" s="9" t="s">
+      <c r="BC6" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="BB6" s="9" t="s">
+      <c r="BD6" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="BE6" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="BF6" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="BC6" s="9" t="s">
+      <c r="BG6" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="BD6" s="9" t="s">
-        <v>470</v>
-      </c>
-      <c r="BE6" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="BF6" s="9" t="s">
+      <c r="BH6" s="9" t="s">
         <v>474</v>
-      </c>
-      <c r="BG6" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="BH6" s="9" t="s">
-        <v>476</v>
       </c>
       <c r="BI6" s="9"/>
       <c r="BJ6" s="9" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="BK6" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="BL6" s="9"/>
       <c r="BM6" s="9" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="BN6" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="BO6" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="BP6" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="BQ6" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="BR6" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="BS6" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="BT6" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="BU6" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="BV6" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="BW6" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="BX6" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="BY6" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="BZ6" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="CA6" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="CB6" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="BO6" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="BP6" s="9" t="s">
+      <c r="CC6" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="CD6" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="CE6" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="CF6" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="CG6" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="CH6" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="CI6" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="CJ6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="CK6" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="CL6" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="CM6" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="CN6" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="CO6" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="CP6" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="CQ6" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="BQ6" s="9" t="s">
+      <c r="CR6" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="BR6" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="BS6" s="9" t="s">
+      <c r="CS6" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="BT6" s="9" t="s">
+      <c r="CT6" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="CU6" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="CV6" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="BU6" s="9" t="s">
+      <c r="CW6" s="9" t="s">
         <v>468</v>
       </c>
-      <c r="BV6" s="9" t="s">
-        <v>465</v>
-      </c>
-      <c r="BW6" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="BX6" s="9" t="s">
+      <c r="CX6" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="CY6" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="BY6" s="9" t="s">
+      <c r="CZ6" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="BZ6" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="CA6" s="9" t="s">
+      <c r="DA6" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="CB6" s="9" t="s">
+      <c r="DB6" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="DC6" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="DD6" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="CC6" s="9" t="s">
+      <c r="DE6" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="CD6" s="9" t="s">
-        <v>470</v>
-      </c>
-      <c r="CE6" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="CF6" s="9" t="s">
+      <c r="DF6" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="CG6" s="9" t="s">
+      <c r="DG6" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="CH6" s="9" t="s">
+      <c r="DH6" s="9" t="s">
         <v>476</v>
-      </c>
-      <c r="CI6" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="CJ6" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="CK6" s="9" t="s">
-        <v>479</v>
-      </c>
-      <c r="CL6" s="9" t="s">
-        <v>470</v>
-      </c>
-      <c r="CM6" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="CN6" s="9" t="s">
-        <v>464</v>
-      </c>
-      <c r="CO6" s="9" t="s">
-        <v>465</v>
-      </c>
-      <c r="CP6" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="CQ6" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="CR6" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="CS6" s="9" t="s">
-        <v>468</v>
-      </c>
-      <c r="CT6" s="9" t="s">
-        <v>465</v>
-      </c>
-      <c r="CU6" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="CV6" s="9" t="s">
-        <v>469</v>
-      </c>
-      <c r="CW6" s="9" t="s">
-        <v>470</v>
-      </c>
-      <c r="CX6" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="CY6" s="9" t="s">
-        <v>471</v>
-      </c>
-      <c r="CZ6" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="DA6" s="9" t="s">
-        <v>473</v>
-      </c>
-      <c r="DB6" s="9" t="s">
-        <v>470</v>
-      </c>
-      <c r="DC6" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="DD6" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="DE6" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="DF6" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="DG6" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="DH6" s="9" t="s">
-        <v>478</v>
       </c>
       <c r="DI6" s="9"/>
       <c r="DJ6" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="DK6" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="DL6" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="DM6" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="DN6" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="DO6" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="DP6" s="9" t="s">
         <v>479</v>
       </c>
-      <c r="DK6" s="9" t="s">
-        <v>470</v>
-      </c>
-      <c r="DL6" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="DM6" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="DN6" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="DO6" s="9" t="s">
+      <c r="DQ6" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="DP6" s="9" t="s">
+      <c r="DR6" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="DQ6" s="9" t="s">
+      <c r="DS6" s="9" t="s">
         <v>482</v>
       </c>
-      <c r="DR6" s="9" t="s">
+      <c r="DT6" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="DU6" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="DV6" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="DS6" s="9" t="s">
+      <c r="DW6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="DX6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="DY6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="DZ6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="EA6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="EB6" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="EC6" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="ED6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="EE6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="EF6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="EG6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="EH6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="EI6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="EJ6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="EK6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="EL6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="EM6" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="EN6" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="EO6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="EP6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="EQ6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="ER6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="ES6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="ET6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="EU6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="EV6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="EW6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="EX6" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="EY6" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="EZ6" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="FA6" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="FB6" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="DT6" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="DU6" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="DV6" s="9" t="s">
+      <c r="FC6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="FD6" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="FE6" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="FF6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="FG6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="FH6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="FI6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="FJ6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="FK6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="FL6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="FM6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="FN6" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="FO6" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="FP6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="FQ6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="FR6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="FS6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="FT6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="FU6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="FV6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="FW6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="FX6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="FY6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="FZ6" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="GA6" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="GB6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="GC6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="GD6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="GE6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="GF6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="GG6" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="GH6" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="GI6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="GJ6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="GK6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="GL6" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="GM6" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="GN6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="GO6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="GP6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="GQ6" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="GR6" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="GS6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="GT6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="GU6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="GV6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="GW6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="GX6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="GY6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="GZ6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="HA6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="HB6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="HC6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="HD6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="HE6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="HF6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="HG6" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="HH6" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="HI6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="HJ6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="HK6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="HL6" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="HM6" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="HN6" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="HO6" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="HP6" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="HQ6" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="DW6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="DX6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="DY6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="DZ6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="EA6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="EB6" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="EC6" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="ED6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="EE6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="EF6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="EG6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="EH6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="EI6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="EJ6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="EK6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="EL6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="EM6" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="EN6" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="EO6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="EP6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="EQ6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="ER6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="ES6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="ET6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="EU6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="EV6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="EW6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="EX6" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="EY6" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="EZ6" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="FA6" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="FB6" s="9" t="s">
+      <c r="HR6" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="FC6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="FD6" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="FE6" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="FF6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="FG6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="FH6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="FI6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="FJ6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="FK6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="FL6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="FM6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="FN6" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="FO6" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="FP6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="FQ6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="FR6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="FS6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="FT6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="FU6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="FV6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="FW6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="FX6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="FY6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="FZ6" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="GA6" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="GB6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="GC6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="GD6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="GE6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="GF6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="GG6" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="GH6" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="GI6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="GJ6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="GK6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="GL6" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="GM6" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="GN6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="GO6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="GP6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="GQ6" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="GR6" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="GS6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="GT6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="GU6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="GV6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="GW6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="GX6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="GY6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="GZ6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="HA6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="HB6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="HC6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="HD6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="HE6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="HF6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="HG6" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="HH6" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="HI6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="HJ6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="HK6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="HL6" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="HM6" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="HN6" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="HO6" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="HP6" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="HQ6" s="9" t="s">
+      <c r="HS6" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="HT6" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="HU6" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="HR6" s="9" t="s">
+      <c r="HV6" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="HW6" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="HX6" s="9" t="s">
         <v>488</v>
       </c>
-      <c r="HS6" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="HT6" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="HU6" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="HV6" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="HW6" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="HX6" s="9" t="s">
-        <v>490</v>
-      </c>
       <c r="HY6" s="9" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="HZ6" s="9" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="IA6" s="9" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="IB6" s="9" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="7" spans="1:236" s="7" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>493</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="G7" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="H7" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="I7" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="J7" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="K7" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="J7" s="9" t="s">
+      <c r="L7" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="M7" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="N7" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="P7" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="Q7" s="9" t="s">
         <v>502</v>
       </c>
-      <c r="N7" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="P7" s="9" t="s">
+      <c r="R7" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="Q7" s="9" t="s">
+      <c r="S7" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="T7" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="U7" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="R7" s="9" t="s">
+      <c r="V7" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="W7" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="X7" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="Y7" s="10" t="s">
         <v>505</v>
       </c>
-      <c r="S7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="T7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="U7" s="10" t="s">
+      <c r="Z7" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="AA7" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="AB7" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="AC7" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="AD7" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="AE7" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="AF7" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="AG7" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="AH7" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="AI7" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="AJ7" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="AK7" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="V7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="W7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="X7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="Y7" s="10" t="s">
+      <c r="AL7" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="AM7" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="Z7" s="9" t="s">
+      <c r="AN7" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="AO7" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="AP7" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="AQ7" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="AR7" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="AS7" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="AT7" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="AU7" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="AA7" s="10" t="s">
-        <v>507</v>
-      </c>
-      <c r="AB7" s="9" t="s">
-        <v>507</v>
-      </c>
-      <c r="AC7" s="10" t="s">
-        <v>507</v>
-      </c>
-      <c r="AD7" s="9" t="s">
-        <v>507</v>
-      </c>
-      <c r="AE7" s="10" t="s">
-        <v>507</v>
-      </c>
-      <c r="AF7" s="10" t="s">
-        <v>507</v>
-      </c>
-      <c r="AG7" s="9" t="s">
-        <v>507</v>
-      </c>
-      <c r="AH7" s="9" t="s">
-        <v>507</v>
-      </c>
-      <c r="AI7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="AJ7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="AK7" s="9" t="s">
+      <c r="AV7" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="AW7" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="AX7" s="10" t="s">
         <v>508</v>
       </c>
-      <c r="AL7" s="10" t="s">
-        <v>507</v>
-      </c>
-      <c r="AM7" s="10" t="s">
+      <c r="AY7" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="AZ7" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="BA7" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="BB7" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="BC7" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="BD7" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="BE7" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="BF7" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="AN7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="AO7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="AP7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="AQ7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="AR7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="AS7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="AT7" s="10" t="s">
-        <v>507</v>
-      </c>
-      <c r="AU7" s="10" t="s">
-        <v>509</v>
-      </c>
-      <c r="AV7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="AW7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="AX7" s="10" t="s">
+      <c r="BG7" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="AY7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="AZ7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="BA7" s="10" t="s">
+      <c r="BH7" s="10" t="s">
         <v>510</v>
-      </c>
-      <c r="BB7" s="10" t="s">
-        <v>510</v>
-      </c>
-      <c r="BC7" s="10" t="s">
-        <v>510</v>
-      </c>
-      <c r="BD7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="BE7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="BF7" s="10" t="s">
-        <v>511</v>
-      </c>
-      <c r="BG7" s="10" t="s">
-        <v>512</v>
-      </c>
-      <c r="BH7" s="10" t="s">
-        <v>512</v>
       </c>
       <c r="BI7" s="10"/>
       <c r="BJ7" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="BK7" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="BL7" s="10"/>
       <c r="BM7" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="BN7" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="BO7" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="BP7" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="BQ7" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="BR7" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="BS7" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="BT7" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="BU7" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="BU7" s="10" t="s">
+      <c r="BV7" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="BW7" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="BX7" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="BY7" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="BZ7" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="CA7" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="CB7" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="CC7" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="CD7" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="CE7" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="CF7" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="BV7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="BW7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="BX7" s="10" t="s">
+      <c r="CG7" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="BY7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="BZ7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="CA7" s="10" t="s">
+      <c r="CH7" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="CB7" s="10" t="s">
+      <c r="CI7" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="CC7" s="10" t="s">
+      <c r="CJ7" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="CD7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="CE7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="CF7" s="10" t="s">
-        <v>511</v>
-      </c>
-      <c r="CG7" s="10" t="s">
-        <v>512</v>
-      </c>
-      <c r="CH7" s="10" t="s">
-        <v>512</v>
-      </c>
-      <c r="CI7" s="10" t="s">
-        <v>512</v>
-      </c>
-      <c r="CJ7" s="10" t="s">
-        <v>512</v>
-      </c>
       <c r="CK7" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="CL7" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="CM7" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="CN7" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="CO7" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="CP7" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="CQ7" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="CR7" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="CS7" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="CS7" s="10" t="s">
+      <c r="CT7" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="CU7" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="CV7" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="CW7" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="CX7" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="CY7" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="CZ7" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="DA7" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="DB7" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="DC7" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="DD7" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="CT7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="CU7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="CV7" s="10" t="s">
+      <c r="DE7" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="CW7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="CX7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="CY7" s="10" t="s">
+      <c r="DF7" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="CZ7" s="10" t="s">
+      <c r="DG7" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="DA7" s="10" t="s">
+      <c r="DH7" s="10" t="s">
         <v>510</v>
-      </c>
-      <c r="DB7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="DC7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="DD7" s="10" t="s">
-        <v>511</v>
-      </c>
-      <c r="DE7" s="10" t="s">
-        <v>512</v>
-      </c>
-      <c r="DF7" s="10" t="s">
-        <v>512</v>
-      </c>
-      <c r="DG7" s="10" t="s">
-        <v>512</v>
-      </c>
-      <c r="DH7" s="10" t="s">
-        <v>512</v>
       </c>
       <c r="DI7" s="10"/>
       <c r="DJ7" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="DK7" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="DL7" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="DM7" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="DN7" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="DO7" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="DP7" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="DQ7" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="DR7" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="DS7" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="DT7" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="DU7" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="DV7" s="14" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="DW7" s="14" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="DX7" s="14" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="DY7" s="14" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="DZ7" s="14"/>
       <c r="EA7" s="14"/>
       <c r="EB7" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="EC7" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="ED7" s="9" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="EE7" s="9"/>
       <c r="EF7" s="9"/>
       <c r="EG7" s="13" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="EH7" s="13" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="EI7" s="13" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="EJ7" s="13" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="EK7" s="13" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="EL7" s="13" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="EM7" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="EN7" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="EO7" s="9" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="EP7" s="10"/>
       <c r="EQ7" s="10"/>
       <c r="ER7" s="10"/>
       <c r="ES7" s="10"/>
       <c r="ET7" s="9" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="EU7" s="9"/>
       <c r="EV7" s="9" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="EW7" s="9"/>
       <c r="EX7" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="EY7" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="EZ7" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="FA7" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="FB7" s="9" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="FC7" s="14" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="FD7" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="FE7" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="FF7" s="13" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="FG7" s="13" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="FH7" s="13" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="FI7" s="13" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="FJ7" s="13" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="FK7" s="13" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="FL7" s="13"/>
       <c r="FM7" s="14"/>
       <c r="FN7" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="FO7" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="FP7" s="13" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="FQ7" s="13" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="FR7" s="13" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="FS7" s="13" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="FT7" s="13" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="FU7" s="13" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="FV7" s="13"/>
       <c r="FW7" s="13"/>
       <c r="FX7" s="13"/>
       <c r="FY7" s="13"/>
       <c r="FZ7" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="GA7" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="GB7" s="13" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="GC7" s="13" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="GD7" s="13" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="GE7" s="13" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="GF7" s="13" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="GG7" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="GH7" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="GI7" s="10"/>
       <c r="GJ7" s="10"/>
       <c r="GK7" s="10"/>
       <c r="GL7" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="GM7" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="GN7" s="10"/>
       <c r="GO7" s="10"/>
       <c r="GP7" s="10"/>
       <c r="GQ7" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="GR7" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="GS7" s="10"/>
       <c r="GT7" s="10"/>
       <c r="GU7" s="10"/>
       <c r="GV7" s="10"/>
       <c r="GW7" s="14" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="GX7" s="10"/>
       <c r="GY7" s="10"/>
@@ -6389,626 +6389,626 @@
       <c r="HE7" s="10"/>
       <c r="HF7" s="10"/>
       <c r="HG7" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="HH7" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="HI7" s="10"/>
       <c r="HJ7" s="10"/>
       <c r="HK7" s="10"/>
       <c r="HL7" s="10"/>
       <c r="HM7" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="HN7" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="HO7" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="HP7" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="HQ7" s="9" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="HR7" s="9" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="HS7" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="HT7" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="HU7" s="9" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="HV7" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="HW7" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="HX7" s="9" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="HY7" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="HZ7" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="IA7" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="IB7" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="8" spans="1:236" s="7" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="E8" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>518</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>520</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="H8" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="I8" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>522</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="K8" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="L8" s="9" t="s">
         <v>523</v>
       </c>
-      <c r="I8" s="9" t="s">
-        <v>518</v>
-      </c>
-      <c r="J8" s="9" t="s">
+      <c r="M8" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="S8" s="10" t="s">
         <v>524</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="T8" s="9" t="s">
         <v>524</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="U8" s="10" t="s">
         <v>525</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="V8" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="W8" s="10" t="s">
         <v>524</v>
       </c>
-      <c r="N8" s="9" t="s">
-        <v>518</v>
-      </c>
-      <c r="O8" s="9" t="s">
+      <c r="X8" s="9" t="s">
         <v>524</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="Y8" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="Z8" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="AA8" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="AB8" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="AC8" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="AD8" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="AE8" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="AF8" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="AG8" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="AH8" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="AI8" s="10" t="s">
         <v>524</v>
       </c>
-      <c r="Q8" s="9" t="s">
+      <c r="AJ8" s="9" t="s">
         <v>524</v>
       </c>
-      <c r="R8" s="9" t="s">
-        <v>518</v>
-      </c>
-      <c r="S8" s="10" t="s">
+      <c r="AK8" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="AL8" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="AM8" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="AN8" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="AO8" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="AP8" s="10" t="s">
         <v>526</v>
       </c>
-      <c r="T8" s="9" t="s">
+      <c r="AQ8" s="10" t="s">
         <v>526</v>
       </c>
-      <c r="U8" s="10" t="s">
-        <v>527</v>
-      </c>
-      <c r="V8" s="10" t="s">
+      <c r="AR8" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="AS8" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="AT8" s="10" t="s">
         <v>528</v>
       </c>
-      <c r="W8" s="10" t="s">
+      <c r="AU8" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="AV8" s="10" t="s">
         <v>526</v>
       </c>
-      <c r="X8" s="9" t="s">
+      <c r="AW8" s="10" t="s">
         <v>526</v>
       </c>
-      <c r="Y8" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="Z8" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="AA8" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="AB8" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="AC8" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="AD8" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="AE8" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="AF8" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="AG8" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="AH8" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="AI8" s="10" t="s">
+      <c r="AX8" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="AY8" s="10" t="s">
         <v>526</v>
       </c>
-      <c r="AJ8" s="9" t="s">
+      <c r="AZ8" s="10" t="s">
         <v>526</v>
       </c>
-      <c r="AK8" s="9" t="s">
+      <c r="BA8" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="BB8" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="BC8" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="BD8" s="10" t="s">
         <v>526</v>
       </c>
-      <c r="AL8" s="10" t="s">
+      <c r="BE8" s="10" t="s">
         <v>526</v>
       </c>
-      <c r="AM8" s="10" t="s">
+      <c r="BF8" s="10" t="s">
         <v>526</v>
       </c>
-      <c r="AN8" s="10" t="s">
-        <v>526</v>
-      </c>
-      <c r="AO8" s="9" t="s">
-        <v>526</v>
-      </c>
-      <c r="AP8" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="AQ8" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="AR8" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="AS8" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="AT8" s="10" t="s">
+      <c r="BG8" s="10" t="s">
         <v>530</v>
       </c>
-      <c r="AU8" s="10" t="s">
-        <v>531</v>
-      </c>
-      <c r="AV8" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="AW8" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="AX8" s="10" t="s">
+      <c r="BH8" s="10" t="s">
         <v>530</v>
-      </c>
-      <c r="AY8" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="AZ8" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="BA8" s="10" t="s">
-        <v>530</v>
-      </c>
-      <c r="BB8" s="10" t="s">
-        <v>530</v>
-      </c>
-      <c r="BC8" s="10" t="s">
-        <v>530</v>
-      </c>
-      <c r="BD8" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="BE8" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="BF8" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="BG8" s="10" t="s">
-        <v>532</v>
-      </c>
-      <c r="BH8" s="10" t="s">
-        <v>532</v>
       </c>
       <c r="BI8" s="10"/>
       <c r="BJ8" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="BK8" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="BL8" s="10"/>
       <c r="BM8" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="BN8" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="BO8" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="BP8" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="BQ8" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="BR8" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="BS8" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="BT8" s="10" t="s">
         <v>528</v>
       </c>
-      <c r="BO8" s="10" t="s">
+      <c r="BU8" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="BV8" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="BW8" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="BX8" s="10" t="s">
         <v>528</v>
       </c>
-      <c r="BP8" s="10" t="s">
+      <c r="BY8" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="BZ8" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="CA8" s="10" t="s">
         <v>528</v>
       </c>
-      <c r="BQ8" s="10" t="s">
+      <c r="CB8" s="10" t="s">
         <v>528</v>
       </c>
-      <c r="BR8" s="10" t="s">
+      <c r="CC8" s="10" t="s">
         <v>528</v>
       </c>
-      <c r="BS8" s="10" t="s">
+      <c r="CD8" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="CE8" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="CF8" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="CG8" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="CH8" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="CI8" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="CJ8" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="CK8" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="CL8" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="CM8" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="CN8" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="CO8" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="CP8" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="CQ8" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="CR8" s="10" t="s">
         <v>528</v>
       </c>
-      <c r="BT8" s="10" t="s">
+      <c r="CS8" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="CT8" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="CU8" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="CV8" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="CW8" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="CX8" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="CY8" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="CZ8" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="DA8" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="DB8" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="DC8" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="DD8" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="DE8" s="10" t="s">
         <v>530</v>
       </c>
-      <c r="BU8" s="10" t="s">
-        <v>531</v>
-      </c>
-      <c r="BV8" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="BW8" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="BX8" s="10" t="s">
+      <c r="DF8" s="10" t="s">
         <v>530</v>
       </c>
-      <c r="BY8" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="BZ8" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="CA8" s="10" t="s">
+      <c r="DG8" s="10" t="s">
         <v>530</v>
       </c>
-      <c r="CB8" s="10" t="s">
+      <c r="DH8" s="10" t="s">
         <v>530</v>
-      </c>
-      <c r="CC8" s="10" t="s">
-        <v>530</v>
-      </c>
-      <c r="CD8" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="CE8" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="CF8" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="CG8" s="10" t="s">
-        <v>532</v>
-      </c>
-      <c r="CH8" s="10" t="s">
-        <v>532</v>
-      </c>
-      <c r="CI8" s="10" t="s">
-        <v>532</v>
-      </c>
-      <c r="CJ8" s="10" t="s">
-        <v>532</v>
-      </c>
-      <c r="CK8" s="10" t="s">
-        <v>532</v>
-      </c>
-      <c r="CL8" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="CM8" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="CN8" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="CO8" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="CP8" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="CQ8" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="CR8" s="10" t="s">
-        <v>530</v>
-      </c>
-      <c r="CS8" s="10" t="s">
-        <v>531</v>
-      </c>
-      <c r="CT8" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="CU8" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="CV8" s="10" t="s">
-        <v>530</v>
-      </c>
-      <c r="CW8" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="CX8" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="CY8" s="10" t="s">
-        <v>530</v>
-      </c>
-      <c r="CZ8" s="10" t="s">
-        <v>530</v>
-      </c>
-      <c r="DA8" s="10" t="s">
-        <v>530</v>
-      </c>
-      <c r="DB8" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="DC8" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="DD8" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="DE8" s="10" t="s">
-        <v>532</v>
-      </c>
-      <c r="DF8" s="10" t="s">
-        <v>532</v>
-      </c>
-      <c r="DG8" s="10" t="s">
-        <v>532</v>
-      </c>
-      <c r="DH8" s="10" t="s">
-        <v>532</v>
       </c>
       <c r="DI8" s="10"/>
       <c r="DJ8" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="DK8" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="DL8" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="DM8" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="DN8" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="DO8" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="DP8" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="DQ8" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="DR8" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="DS8" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="DT8" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="DU8" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="DV8" s="14" t="s">
         <v>532</v>
       </c>
-      <c r="DK8" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="DL8" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="DM8" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="DN8" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="DO8" s="10" t="s">
-        <v>530</v>
-      </c>
-      <c r="DP8" s="10" t="s">
+      <c r="DW8" s="14" t="s">
         <v>533</v>
       </c>
-      <c r="DQ8" s="10" t="s">
-        <v>530</v>
-      </c>
-      <c r="DR8" s="10" t="s">
-        <v>530</v>
-      </c>
-      <c r="DS8" s="10" t="s">
-        <v>530</v>
-      </c>
-      <c r="DT8" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="DU8" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="DV8" s="14" t="s">
-        <v>534</v>
-      </c>
-      <c r="DW8" s="14" t="s">
-        <v>535</v>
-      </c>
       <c r="DX8" s="14" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="DY8" s="14" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="DZ8" s="14"/>
       <c r="EA8" s="14"/>
       <c r="EB8" s="10" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="EC8" s="10" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="ED8" s="9" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="EE8" s="9"/>
       <c r="EF8" s="9"/>
       <c r="EG8" s="13" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="EH8" s="13" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="EI8" s="13" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="EJ8" s="13" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="EK8" s="13" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="EL8" s="13" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="EM8" s="10" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="EN8" s="10" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="EO8" s="9" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="EP8" s="10"/>
       <c r="EQ8" s="10"/>
       <c r="ER8" s="10"/>
       <c r="ES8" s="10"/>
       <c r="ET8" s="9" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="EU8" s="9"/>
       <c r="EV8" s="9" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="EW8" s="9"/>
       <c r="EX8" s="10" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="EY8" s="10" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="EZ8" s="10" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="FA8" s="10" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="FB8" s="9" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="FC8" s="13" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="FD8" s="10" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="FE8" s="10" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="FF8" s="13" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="FG8" s="13" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="FH8" s="13" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="FI8" s="13" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="FJ8" s="13" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="FK8" s="13" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="FL8" s="13"/>
       <c r="FM8" s="13"/>
       <c r="FN8" s="13" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="FO8" s="13" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="FP8" s="13" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="FQ8" s="13" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="FR8" s="13" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="FS8" s="13" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="FT8" s="13" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="FU8" s="13" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="FV8" s="13" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="FW8" s="13"/>
       <c r="FX8" s="13"/>
       <c r="FY8" s="13"/>
       <c r="FZ8" s="13" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="GA8" s="13" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="GB8" s="13" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="GC8" s="13" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="GD8" s="13" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="GE8" s="13" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="GF8" s="13" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="GG8" s="13" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="GH8" s="13" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="GI8" s="13" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="GJ8" s="13" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="GK8" s="13" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="GL8" s="13" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="GM8" s="13" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="GN8" s="13" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="GO8" s="13" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="GP8" s="13"/>
       <c r="GQ8" s="13" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="GR8" s="13" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="GS8" s="13"/>
       <c r="GT8" s="13"/>
@@ -7025,62 +7025,62 @@
       <c r="HE8" s="13"/>
       <c r="HF8" s="13"/>
       <c r="HG8" s="13" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="HH8" s="13" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="HI8" s="13"/>
       <c r="HJ8" s="13"/>
       <c r="HK8" s="13"/>
       <c r="HL8" s="13"/>
       <c r="HM8" s="13" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="HN8" s="13" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="HO8" s="13" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="HP8" s="13" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="HQ8" s="9" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="HR8" s="9" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="HS8" s="9" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="HT8" s="9" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="HU8" s="9" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="HV8" s="9" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="HW8" s="9" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="HX8" s="9" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="HY8" s="9" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="HZ8" s="9" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="IA8" s="9" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="IB8" s="9" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
   </sheetData>
@@ -7101,6 +7101,24 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="4654e9f1-a236-4d55-b6c2-932c37e5d109">
+      <UserInfo>
+        <DisplayName>Brent Rine</DisplayName>
+        <AccountId>23</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c267871d-e92d-4bec-a268-edb541a91654">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="4654e9f1-a236-4d55-b6c2-932c37e5d109" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BBCC0D8A7D6FE0469D1BA865BCA834CE" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aad8b0e827a3cbb82db805bd49dada19">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c267871d-e92d-4bec-a268-edb541a91654" xmlns:ns3="4654e9f1-a236-4d55-b6c2-932c37e5d109" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f1addc3745f171cb8e6bf468ebd5ceb5" ns2:_="" ns3:_="">
     <xsd:import namespace="c267871d-e92d-4bec-a268-edb541a91654"/>
@@ -7337,24 +7355,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="4654e9f1-a236-4d55-b6c2-932c37e5d109">
-      <UserInfo>
-        <DisplayName>Brent Rine</DisplayName>
-        <AccountId>23</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c267871d-e92d-4bec-a268-edb541a91654">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="4654e9f1-a236-4d55-b6c2-932c37e5d109" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A2AA17B-CA28-47AB-9F1B-CF2D00CC15D4}">
   <ds:schemaRefs>
@@ -7364,6 +7364,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AA33094-6942-48DE-9F4F-C923660B2492}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4654e9f1-a236-4d55-b6c2-932c37e5d109"/>
+    <ds:schemaRef ds:uri="c267871d-e92d-4bec-a268-edb541a91654"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7848D2E-D836-421D-B297-73A1FAE0CF03}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7380,15 +7391,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AA33094-6942-48DE-9F4F-C923660B2492}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4654e9f1-a236-4d55-b6c2-932c37e5d109"/>
-    <ds:schemaRef ds:uri="c267871d-e92d-4bec-a268-edb541a91654"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>